--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0ED523B7-E174-E54E-83DA-6DC6986702CB}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{718C441B-53C0-5F4A-9A9C-8BF0F0E3DA6C}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
   <si>
     <t>题号</t>
   </si>
@@ -720,6 +720,19 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/invert-binary-tree/discuss/62707/Straightforward-DFS-recursive-iterative-BFS-solutions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs
+bfs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>return !root ? 0 : max(maxDepth(root-&gt;left), maxDepth(root-&gt;right)) + 1;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -768,12 +781,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -808,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +892,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3360,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD44232-D902-224C-ABAA-0E4EF437ED50}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3481,7 +3503,9 @@
       <c r="B9" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="80">
@@ -3491,7 +3515,9 @@
       <c r="B10" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>210</v>
+      </c>
       <c r="D10" s="14" t="s">
         <v>209</v>
       </c>
@@ -3527,7 +3553,7 @@
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="17">
-      <c r="A14" s="16">
+      <c r="A14" s="22">
         <v>129</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -3537,7 +3563,7 @@
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="32">
-      <c r="A15" s="16">
+      <c r="A15" s="22">
         <v>298</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -3547,7 +3573,7 @@
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="17">
-      <c r="A16" s="16">
+      <c r="A16" s="22">
         <v>111</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -3564,15 +3590,19 @@
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="54">
       <c r="A18" s="16">
         <v>104</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17">
       <c r="A19" s="16">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{718C441B-53C0-5F4A-9A9C-8BF0F0E3DA6C}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1EAAD56-89C9-4C4D-BCF5-F5A9F2A4BBE6}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="3" r:id="rId1"/>
     <sheet name="Math" sheetId="2" r:id="rId2"/>
     <sheet name="tree" sheetId="4" r:id="rId3"/>
+    <sheet name="LinkedList" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="242">
   <si>
     <t>题号</t>
   </si>
@@ -733,6 +734,101 @@
   </si>
   <si>
     <t>return !root ? 0 : max(maxDepth(root-&gt;left), maxDepth(root-&gt;right)) + 1;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs
+dfs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色是没做过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色是非会员做不了</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色是这题往下都没做过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>Reverse Linked List II</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>Plus One Linked List</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>Sort List</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>Rotate List</t>
+  </si>
+  <si>
+    <t>Partition List</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Insertion Sort List</t>
+  </si>
+  <si>
+    <t>iterative
+recursive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己重新写几遍</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +877,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,6 +887,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -895,6 +1003,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3382,8 +3496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD44232-D902-224C-ABAA-0E4EF437ED50}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3531,6 +3645,9 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="16"/>
+      <c r="E11" s="21" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="17">
       <c r="A12" s="16">
@@ -3541,6 +3658,9 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="16"/>
+      <c r="E12" s="21" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="17">
       <c r="A13" s="16">
@@ -3551,6 +3671,9 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="16"/>
+      <c r="E13" s="21" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="17">
       <c r="A14" s="22">
@@ -3615,7 +3738,7 @@
       <c r="D19" s="16"/>
     </row>
     <row r="20" spans="1:4" ht="17">
-      <c r="A20" s="16">
+      <c r="A20" s="22">
         <v>124</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -3625,7 +3748,7 @@
       <c r="D20" s="16"/>
     </row>
     <row r="21" spans="1:4" ht="17">
-      <c r="A21" s="16">
+      <c r="A21" s="23">
         <v>250</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -3671,7 +3794,9 @@
       <c r="B25" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="14"/>
+      <c r="C25" s="14" t="s">
+        <v>213</v>
+      </c>
       <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4" ht="32">
@@ -3685,7 +3810,7 @@
       <c r="D26" s="16"/>
     </row>
     <row r="27" spans="1:4" ht="18">
-      <c r="A27" s="16">
+      <c r="A27" s="24">
         <v>199</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -4066,4 +4191,318 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CAB4C4-860B-5F46-A41A-F6FD7189A72C}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" style="20" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="21" style="20" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" ht="32">
+      <c r="A3" s="16">
+        <v>206</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17">
+      <c r="A4" s="16">
+        <v>141</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="17">
+      <c r="A5" s="16">
+        <v>24</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="16">
+        <v>328</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="16">
+        <v>92</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="16">
+        <v>237</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="16">
+        <v>19</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="16">
+        <v>83</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="17">
+      <c r="A11" s="16">
+        <v>203</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="32">
+      <c r="A12" s="16">
+        <v>82</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="17">
+      <c r="A13" s="16">
+        <v>369</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="17">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="17">
+      <c r="A15" s="16">
+        <v>160</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" ht="17">
+      <c r="A16" s="16">
+        <v>21</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="18">
+      <c r="A17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="17">
+      <c r="A18" s="16">
+        <v>234</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="17">
+      <c r="A19" s="16">
+        <v>143</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="17">
+      <c r="A20" s="16">
+        <v>142</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="17">
+      <c r="A21" s="16">
+        <v>148</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4" ht="17">
+      <c r="A22" s="16">
+        <v>25</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="17">
+      <c r="A23" s="16">
+        <v>61</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" ht="17">
+      <c r="A24" s="16">
+        <v>86</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="17">
+      <c r="A25" s="16">
+        <v>23</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" ht="17">
+      <c r="A26" s="16">
+        <v>147</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode.com/problems/reverse-linked-list/description/" xr:uid="{A0CA4335-B279-F24D-9798-0BFA0B41D9C8}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode.com/problems/linked-list-cycle/description/" xr:uid="{63A5C7B8-9FD5-F14D-93BE-6A6B1571F963}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode.com/problems/swap-nodes-in-pairs/description/" xr:uid="{853BD651-8C6D-FE4C-8F8D-1E8D4D1957CA}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://leetcode.com/problems/odd-even-linked-list/description/" xr:uid="{64C6911B-BF1B-AE4F-8070-7BC6EEAD62FF}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/reverse-linked-list-ii/description/" xr:uid="{C97AFD25-0E8D-5E47-B103-A58B141B9FDF}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/delete-node-in-a-linked-list/description/" xr:uid="{2F2C5DA6-9339-444F-BC55-83DD45045CF2}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list/description/" xr:uid="{17FAEB0B-7C8C-C948-877F-50DC2141430E}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/description/" xr:uid="{B3DE3BBA-919B-0644-9FE4-B97C2B704E3F}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/remove-linked-list-elements/description/" xr:uid="{797C95D4-7D66-BF43-8982-85F0A9B8A092}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/description/" xr:uid="{B76ABA40-DF2C-C048-889C-41C39E13963B}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://leetcode.com/problems/plus-one-linked-list/description/" xr:uid="{4F34D077-FDD2-1748-8F50-E2260EC628F3}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://leetcode.com/problems/add-two-numbers/description/" xr:uid="{ACBE2944-1345-B844-8CA6-36E29808A14F}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://leetcode.com/problems/intersection-of-two-linked-lists/description/" xr:uid="{C24268DA-D346-9244-A47B-5F4056956D05}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://leetcode.com/problems/merge-two-sorted-lists/description/" xr:uid="{245D6ABB-7F7C-0745-8690-253A2EFD5981}"/>
+    <hyperlink ref="B18" r:id="rId15" display="https://leetcode.com/problems/palindrome-linked-list/description/" xr:uid="{68CD7FF3-01D8-5F42-B23B-3D2F9709D3CD}"/>
+    <hyperlink ref="B19" r:id="rId16" display="https://leetcode.com/problems/reorder-list/description/" xr:uid="{2AEB6EC7-29C8-DB48-919C-EB88758427FA}"/>
+    <hyperlink ref="B20" r:id="rId17" display="https://leetcode.com/problems/linked-list-cycle-ii/description/" xr:uid="{24FC4FC2-6A1E-1042-92E5-D342A22A76D4}"/>
+    <hyperlink ref="B21" r:id="rId18" display="https://leetcode.com/problems/sort-list/description/" xr:uid="{C130EDAE-0578-454B-8979-742DF2A713F2}"/>
+    <hyperlink ref="B22" r:id="rId19" display="https://leetcode.com/problems/reverse-nodes-in-k-group/description/" xr:uid="{A6CB155F-0D49-2B43-9E87-ED5C0A793180}"/>
+    <hyperlink ref="B23" r:id="rId20" display="https://leetcode.com/problems/rotate-list/description/" xr:uid="{B439DE69-1C2A-1445-985E-27F7C46D4B42}"/>
+    <hyperlink ref="B24" r:id="rId21" display="https://leetcode.com/problems/partition-list/description/" xr:uid="{7A14A052-FB04-E744-97E9-0113F9E99F9A}"/>
+    <hyperlink ref="B25" r:id="rId22" display="https://leetcode.com/problems/merge-k-sorted-lists/description/" xr:uid="{976E597F-E579-924D-9836-61A196ED9E07}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://leetcode.com/problems/insertion-sort-list/description/" xr:uid="{013ACA0F-9490-6A4B-9009-101C955FD7E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F1EAAD56-89C9-4C4D-BCF5-F5A9F2A4BBE6}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06D38601-0CEC-3545-862B-C01FC4E41445}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="16800" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16800" yWindow="10500" windowWidth="16800" windowHeight="10500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="245">
   <si>
     <t>题号</t>
   </si>
@@ -831,12 +831,26 @@
     <t>自己重新写几遍</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1.12步长循环 two pointer
+2.记录下自己走过的点,每次都去查找是否走过 hash table set O(n)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>two pointer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. iterative : dummy pointer
+2. recursive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -873,6 +887,13 @@
       <sz val="13"/>
       <color rgb="FF212529"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -935,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1030,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4197,15 +4221,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CAB4C4-860B-5F46-A41A-F6FD7189A72C}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="20" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="21" style="20" customWidth="1"/>
+    <col min="3" max="3" width="28" style="20" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="20" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="20"/>
   </cols>
@@ -4249,24 +4273,28 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17">
+    <row r="4" spans="1:5" ht="64">
       <c r="A4" s="16">
         <v>141</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="25" t="s">
+        <v>242</v>
+      </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="17">
+    <row r="5" spans="1:5" ht="48">
       <c r="A5" s="16">
         <v>24</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>244</v>
+      </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="17">
@@ -4276,7 +4304,9 @@
       <c r="B6" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:5" ht="17">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06D38601-0CEC-3545-862B-C01FC4E41445}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34755D9F-279F-C84C-9084-1C4CA0C137B8}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="10500" windowWidth="16800" windowHeight="10500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4222,7 +4222,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4298,7 +4298,7 @@
       <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="17">
-      <c r="A6" s="16">
+      <c r="A6" s="24">
         <v>328</v>
       </c>
       <c r="B6" s="14" t="s">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{34755D9F-279F-C84C-9084-1C4CA0C137B8}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAAF4ECE-446E-FC46-BBB4-9058229A4598}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="10500" windowWidth="16800" windowHeight="10500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="LinkedList" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="249">
   <si>
     <t>题号</t>
   </si>
@@ -843,6 +844,26 @@
   <si>
     <t>1. iterative : dummy pointer
 2. recursive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般遍历需要,设立dummy
+转换链表需要设立, pre, cur, tmp 节点
+pre记录需要插入的位置, 不移动, cur记录当前需要移动的点, tmp是cur-》next,跟着一起移动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListNode *dummy = new ListNode(-1), *pre = dummy;
+dummy-&gt;next = head;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. two iterative
+2. two pointers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">为什么设置哑节点: First we will add an auxiliary "dummy" node, which points to the list head. The "dummy" node is used to simplify some corner cases such as a list with only one node, or removing the head of the list. </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2198,14 +2219,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C31955-1CE0-E845-8E07-880950040501}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="59.83203125" customWidth="1"/>
     <col min="3" max="4" width="29.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17">
@@ -2233,7 +2255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17">
+    <row r="3" spans="1:8" ht="32">
       <c r="A3" s="7">
         <v>28</v>
       </c>
@@ -2242,8 +2264,11 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="17">
+      <c r="H3" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="32">
       <c r="A4" s="7">
         <v>14</v>
       </c>
@@ -2252,8 +2277,11 @@
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="17">
+      <c r="H4" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48">
       <c r="A5" s="7">
         <v>58</v>
       </c>
@@ -2262,6 +2290,9 @@
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="10"/>
+      <c r="H5" s="21" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="17">
       <c r="A6" s="7">
@@ -3520,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD44232-D902-224C-ABAA-0E4EF437ED50}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3669,9 +3700,6 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="21" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="12" spans="1:5" ht="17">
       <c r="A12" s="16">
@@ -3682,9 +3710,6 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="21" t="s">
-        <v>215</v>
-      </c>
     </row>
     <row r="13" spans="1:5" ht="17">
       <c r="A13" s="16">
@@ -3695,9 +3720,6 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="21" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="14" spans="1:5" ht="17">
       <c r="A14" s="22">
@@ -4222,16 +4244,17 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="12" style="20" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" style="20" customWidth="1"/>
     <col min="3" max="3" width="28" style="20" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="20" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="20"/>
+    <col min="4" max="4" width="52" style="20" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -4297,7 +4320,7 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="17">
+    <row r="6" spans="1:5">
       <c r="A6" s="24">
         <v>328</v>
       </c>
@@ -4309,7 +4332,7 @@
       </c>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:5" ht="17">
+    <row r="7" spans="1:5" ht="108">
       <c r="A7" s="16">
         <v>92</v>
       </c>
@@ -4317,9 +4340,14 @@
         <v>221</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" ht="17">
+      <c r="D7" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="16">
         <v>237</v>
       </c>
@@ -4329,17 +4357,21 @@
       <c r="C8" s="14"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="17">
-      <c r="A9" s="16">
+    <row r="9" spans="1:5" ht="126">
+      <c r="A9" s="22">
         <v>19</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" ht="17">
+      <c r="C9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="16">
         <v>83</v>
       </c>
@@ -4349,7 +4381,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="17">
+    <row r="11" spans="1:5">
       <c r="A11" s="16">
         <v>203</v>
       </c>
@@ -4369,7 +4401,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="16"/>
     </row>
-    <row r="13" spans="1:5" ht="17">
+    <row r="13" spans="1:5">
       <c r="A13" s="16">
         <v>369</v>
       </c>
@@ -4379,7 +4411,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="17">
+    <row r="14" spans="1:5">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -4389,7 +4421,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="17">
+    <row r="15" spans="1:5">
       <c r="A15" s="16">
         <v>160</v>
       </c>
@@ -4399,7 +4431,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="17">
+    <row r="16" spans="1:5">
       <c r="A16" s="16">
         <v>21</v>
       </c>
@@ -4417,7 +4449,7 @@
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4">
       <c r="A18" s="16">
         <v>234</v>
       </c>
@@ -4427,7 +4459,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4">
       <c r="A19" s="16">
         <v>143</v>
       </c>
@@ -4437,7 +4469,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4">
       <c r="A20" s="16">
         <v>142</v>
       </c>
@@ -4447,7 +4479,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4">
       <c r="A21" s="16">
         <v>148</v>
       </c>
@@ -4457,7 +4489,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4">
       <c r="A22" s="16">
         <v>25</v>
       </c>
@@ -4467,7 +4499,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4">
       <c r="A23" s="16">
         <v>61</v>
       </c>
@@ -4477,7 +4509,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4">
       <c r="A24" s="16">
         <v>86</v>
       </c>
@@ -4487,7 +4519,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -4497,7 +4529,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4">
       <c r="A26" s="16">
         <v>147</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -5,21 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EAAF4ECE-446E-FC46-BBB4-9058229A4598}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95A7A02C-95DE-AD45-8A72-27E50B356418}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="10500" windowWidth="16800" windowHeight="10500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="string" sheetId="3" r:id="rId1"/>
-    <sheet name="Math" sheetId="2" r:id="rId2"/>
-    <sheet name="tree" sheetId="4" r:id="rId3"/>
-    <sheet name="LinkedList" sheetId="5" r:id="rId4"/>
+    <sheet name="array" sheetId="6" r:id="rId1"/>
+    <sheet name="string" sheetId="3" r:id="rId2"/>
+    <sheet name="Math" sheetId="2" r:id="rId3"/>
+    <sheet name="tree" sheetId="4" r:id="rId4"/>
+    <sheet name="LinkedList" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">string!$A$1:$E$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="329">
   <si>
     <t>题号</t>
   </si>
@@ -865,6 +868,248 @@
   <si>
     <t xml:space="preserve">为什么设置哑节点: First we will add an auxiliary "dummy" node, which points to the list head. The "dummy" node is used to simplify some corner cases such as a list with only one node, or removing the head of the list. </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evenHead</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare current value with next value, if equal, link cur point to next of next point</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <t>Find the Celebrity</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>Bulls and Cows</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Majority Element II</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>H-Index II</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance II</t>
+  </si>
+  <si>
+    <t>Shortest Word Distance III</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>Contains Duplicate III</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock III</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Increasing Triplet Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Maximum Gap</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>Find the Duplicate Number</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Game of Life</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Meeting Rooms</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Data Stream as Disjoint Intervals</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>Counter</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>Maximum Size Subarray Sum Equals k</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Wiggle Subsequence</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays II</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
   </si>
 </sst>
 </file>
@@ -977,7 +1222,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1055,6 +1300,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2216,11 +2470,921 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E31474-2082-8642-8DA0-1EC5F566967D}">
+  <dimension ref="A1:E79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18">
+      <c r="A2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="17">
+      <c r="A3" s="26">
+        <v>27</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" ht="32">
+      <c r="A4" s="26">
+        <v>26</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="1:5" ht="32">
+      <c r="A5" s="26">
+        <v>80</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="17">
+      <c r="A6" s="26">
+        <v>277</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" ht="17">
+      <c r="A7" s="26">
+        <v>189</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:5" ht="17">
+      <c r="A8" s="26">
+        <v>41</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" ht="17">
+      <c r="A9" s="26">
+        <v>299</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="1:5" ht="17">
+      <c r="A10" s="26">
+        <v>134</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="1:5" ht="18">
+      <c r="A11" s="26">
+        <v>118</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="E11" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18">
+      <c r="A12" s="26">
+        <v>119</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="E12" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18">
+      <c r="A13" s="26">
+        <v>169</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="E13" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18">
+      <c r="A14" s="26">
+        <v>229</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="E14" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17">
+      <c r="A15" s="26">
+        <v>274</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="18">
+      <c r="A16" s="26">
+        <v>275</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="E16" s="26" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17">
+      <c r="A17" s="26">
+        <v>243</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="1:5" ht="17">
+      <c r="A18" s="26">
+        <v>244</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="1:5" ht="17">
+      <c r="A19" s="26">
+        <v>245</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="1:5" ht="17">
+      <c r="A20" s="26">
+        <v>217</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" ht="18">
+      <c r="A21" s="26">
+        <v>219</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="E21" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18">
+      <c r="A22" s="26">
+        <v>220</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="C22" s="28"/>
+      <c r="E22" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17">
+      <c r="A23" s="26">
+        <v>55</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" ht="17">
+      <c r="A24" s="26">
+        <v>45</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:5" ht="32">
+      <c r="A25" s="26">
+        <v>121</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="1:5" ht="32">
+      <c r="A26" s="26">
+        <v>122</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" ht="32">
+      <c r="A27" s="26">
+        <v>123</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5" ht="32">
+      <c r="A28" s="26">
+        <v>188</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" ht="32">
+      <c r="A29" s="26">
+        <v>309</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5" ht="17">
+      <c r="A30" s="26">
+        <v>11</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:5" ht="17">
+      <c r="A31" s="26">
+        <v>42</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>280</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:5" ht="32">
+      <c r="A32" s="26">
+        <v>334</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:5" ht="32">
+      <c r="A33" s="26">
+        <v>128</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="1:5" ht="18">
+      <c r="A34" s="26">
+        <v>164</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="E34" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17">
+      <c r="A35" s="26">
+        <v>287</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="E35" s="26"/>
+    </row>
+    <row r="36" spans="1:5" ht="18">
+      <c r="A36" s="26">
+        <v>135</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="E36" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18">
+      <c r="A37" s="26">
+        <v>330</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="E37" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18">
+      <c r="A38" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5" ht="18">
+      <c r="A39" s="26">
+        <v>4</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="E39" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18">
+      <c r="A40" s="26">
+        <v>321</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="E40" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17">
+      <c r="A41" s="26">
+        <v>327</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="E41" s="26"/>
+    </row>
+    <row r="42" spans="1:5" ht="17">
+      <c r="A42" s="26">
+        <v>289</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="E42" s="26"/>
+    </row>
+    <row r="43" spans="1:5" ht="18">
+      <c r="A43" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="E43" s="26"/>
+    </row>
+    <row r="44" spans="1:5" ht="17">
+      <c r="A44" s="26">
+        <v>57</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="C44" s="28"/>
+      <c r="E44" s="26"/>
+    </row>
+    <row r="45" spans="1:5" ht="17">
+      <c r="A45" s="26">
+        <v>56</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" ht="17">
+      <c r="A46" s="26">
+        <v>252</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C46" s="28"/>
+      <c r="E46" s="26"/>
+    </row>
+    <row r="47" spans="1:5" ht="17">
+      <c r="A47" s="26">
+        <v>253</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="E47" s="26"/>
+    </row>
+    <row r="48" spans="1:5" ht="32">
+      <c r="A48" s="26">
+        <v>352</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="E48" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18">
+      <c r="A49" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="E49" s="26"/>
+    </row>
+    <row r="50" spans="1:5" ht="17">
+      <c r="A50" s="26">
+        <v>239</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="28"/>
+      <c r="E50" s="26"/>
+    </row>
+    <row r="51" spans="1:5" ht="32">
+      <c r="A51" s="26">
+        <v>295</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="E51" s="26"/>
+    </row>
+    <row r="52" spans="1:5" ht="17">
+      <c r="A52" s="26">
+        <v>53</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="28"/>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:5" ht="32">
+      <c r="A53" s="26">
+        <v>325</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="E53" s="26"/>
+    </row>
+    <row r="54" spans="1:5" ht="17">
+      <c r="A54" s="26">
+        <v>209</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="E54" s="26"/>
+    </row>
+    <row r="55" spans="1:5" ht="32">
+      <c r="A55" s="26">
+        <v>238</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:5" ht="17">
+      <c r="A56" s="26">
+        <v>152</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:5" ht="17">
+      <c r="A57" s="26">
+        <v>228</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="E57" s="26"/>
+    </row>
+    <row r="58" spans="1:5" ht="17">
+      <c r="A58" s="26">
+        <v>163</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="28"/>
+      <c r="E58" s="26"/>
+    </row>
+    <row r="59" spans="1:5" ht="18">
+      <c r="A59" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="E59" s="26"/>
+    </row>
+    <row r="60" spans="1:5" ht="17">
+      <c r="A60" s="26">
+        <v>88</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="E60" s="26"/>
+    </row>
+    <row r="61" spans="1:5" ht="17">
+      <c r="A61" s="26">
+        <v>75</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C61" s="28"/>
+      <c r="E61" s="26"/>
+    </row>
+    <row r="62" spans="1:5" ht="17">
+      <c r="A62" s="26">
+        <v>283</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" spans="1:5" ht="17">
+      <c r="A63" s="26">
+        <v>376</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:5" ht="17">
+      <c r="A64" s="26">
+        <v>280</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:5" ht="17">
+      <c r="A65" s="26">
+        <v>324</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="28"/>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:5" ht="17">
+      <c r="A66" s="26">
+        <v>278</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:5" ht="17">
+      <c r="A67" s="26">
+        <v>35</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="1:5" ht="32">
+      <c r="A68" s="26">
+        <v>33</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="E68" s="26"/>
+    </row>
+    <row r="69" spans="1:5" ht="32">
+      <c r="A69" s="26">
+        <v>81</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="E69" s="26"/>
+    </row>
+    <row r="70" spans="1:5" ht="32">
+      <c r="A70" s="26">
+        <v>153</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="E70" s="26"/>
+    </row>
+    <row r="71" spans="1:5" ht="32">
+      <c r="A71" s="26">
+        <v>154</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="E71" s="26"/>
+    </row>
+    <row r="72" spans="1:5" ht="17">
+      <c r="A72" s="26">
+        <v>162</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="E72" s="26"/>
+    </row>
+    <row r="73" spans="1:5" ht="32">
+      <c r="A73" s="26">
+        <v>374</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="28"/>
+      <c r="E73" s="26"/>
+    </row>
+    <row r="74" spans="1:5" ht="48">
+      <c r="A74" s="26">
+        <v>34</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" s="28"/>
+      <c r="E74" s="26"/>
+    </row>
+    <row r="75" spans="1:5" ht="17">
+      <c r="A75" s="26">
+        <v>349</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="E75" s="26"/>
+    </row>
+    <row r="76" spans="1:5" ht="32">
+      <c r="A76" s="26">
+        <v>350</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C76" s="28"/>
+      <c r="E76" s="26"/>
+    </row>
+    <row r="77" spans="1:5" ht="32">
+      <c r="A77" s="26">
+        <v>315</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" s="28"/>
+      <c r="E77" s="26"/>
+    </row>
+    <row r="78" spans="1:5" ht="32">
+      <c r="A78" s="26">
+        <v>300</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" s="28"/>
+      <c r="E78" s="26"/>
+    </row>
+    <row r="79" spans="1:5" ht="17">
+      <c r="A79" s="26">
+        <v>354</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C79" s="28"/>
+      <c r="E79" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{460B64D9-EC47-D840-9BCF-9AA36F2581DB}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array/description/" xr:uid="{EA08CD2D-9D93-D743-BCD4-97B775E6AD8E}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://leetcode.com/problems/remove-duplicates-from-sorted-array-ii/description/" xr:uid="{BD8F1810-70FA-F849-91CA-C455BED8FE18}"/>
+    <hyperlink ref="B6" r:id="rId4" display="https://leetcode.com/problems/find-the-celebrity/description/" xr:uid="{C754168F-8E59-D741-9753-DB4AD63A5610}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://leetcode.com/problems/rotate-array/description/" xr:uid="{6A3E2BFA-4512-1A4A-A1ED-C3152B7FA464}"/>
+    <hyperlink ref="B8" r:id="rId6" display="https://leetcode.com/problems/first-missing-positive/description/" xr:uid="{61F5EE5B-29D9-8948-8D33-536B1180896C}"/>
+    <hyperlink ref="B9" r:id="rId7" display="https://leetcode.com/problems/bulls-and-cows/" xr:uid="{F403A24F-3978-164E-9F88-1DB76071B524}"/>
+    <hyperlink ref="B10" r:id="rId8" display="https://leetcode.com/problems/gas-station/description/" xr:uid="{479C8F93-6A8E-2B4B-86CB-17C7F07F108C}"/>
+    <hyperlink ref="B11" r:id="rId9" display="https://leetcode.com/problems/pascals-triangle/description/" xr:uid="{913CAA3B-C70D-9043-B270-DAAD3F6297B5}"/>
+    <hyperlink ref="B12" r:id="rId10" display="https://leetcode.com/problems/pascals-triangle-ii/description/" xr:uid="{CB816F75-8298-3147-AF03-E2992CA901F3}"/>
+    <hyperlink ref="B13" r:id="rId11" display="https://leetcode.com/problems/majority-element/description/" xr:uid="{C6261636-FBC0-7243-934F-474260CCBBC1}"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://leetcode.com/problems/majority-element-ii/description/" xr:uid="{3855A749-FDDD-574E-B1CA-3DADE7312812}"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://leetcode.com/problems/h-index/description/" xr:uid="{B0206B36-C958-C14B-A44E-1498160CA05F}"/>
+    <hyperlink ref="B16" r:id="rId14" display="https://leetcode.com/problems/h-index-ii/description/" xr:uid="{0AA677D3-46D9-D845-8F88-3FF39CF197BF}"/>
+    <hyperlink ref="B17" r:id="rId15" display="https://leetcode.com/problems/shortest-word-distance/description/" xr:uid="{AAE26B95-F847-2E40-84EF-4127D4044412}"/>
+    <hyperlink ref="B18" r:id="rId16" display="https://leetcode.com/problems/shortest-word-distance-ii/description/" xr:uid="{8D221F2A-0C50-0346-8D9B-6D55DE10CD09}"/>
+    <hyperlink ref="B19" r:id="rId17" display="https://leetcode.com/problems/shortest-word-distance-iii/description/" xr:uid="{439740A7-72A4-2747-8ABD-63D19AC15289}"/>
+    <hyperlink ref="B20" r:id="rId18" display="https://leetcode.com/problems/contains-duplicate/description/" xr:uid="{8B99D3AC-E353-BE47-B708-3C2243B27FD9}"/>
+    <hyperlink ref="B21" r:id="rId19" display="https://leetcode.com/problems/contains-duplicate-ii/description/" xr:uid="{2667A5F5-D871-FB4F-B6D2-C4E0DECA80F0}"/>
+    <hyperlink ref="B22" r:id="rId20" display="https://leetcode.com/problems/contains-duplicate-iii/description/" xr:uid="{BAC2A03B-6366-CB47-B20B-5C637DADF85D}"/>
+    <hyperlink ref="B23" r:id="rId21" display="https://leetcode.com/problems/jump-game/description/" xr:uid="{65B1D035-0DDA-B949-987A-554C778CC123}"/>
+    <hyperlink ref="B24" r:id="rId22" display="https://leetcode.com/problems/jump-game-ii/description/" xr:uid="{D9DB290A-A4A5-9B40-9B78-1C6779E7BC2E}"/>
+    <hyperlink ref="B25" r:id="rId23" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/" xr:uid="{404DD0BF-9CDF-4147-945D-90B6A4D22ED6}"/>
+    <hyperlink ref="B26" r:id="rId24" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/description/" xr:uid="{500F3B00-C30C-0641-89E5-45F16564A713}"/>
+    <hyperlink ref="B27" r:id="rId25" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iii/description/" xr:uid="{3636E59C-31B3-5243-B820-CC916077DFD4}"/>
+    <hyperlink ref="B28" r:id="rId26" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/description/" xr:uid="{0B552388-D900-9B4F-BB1E-0ED46534DC06}"/>
+    <hyperlink ref="B29" r:id="rId27" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/description/" xr:uid="{B02B341A-8232-A240-A12F-2812CAEE3DDE}"/>
+    <hyperlink ref="B30" r:id="rId28" display="https://leetcode.com/problems/container-with-most-water/description/" xr:uid="{91EB49CD-488C-1444-BCEA-954D3355DCA0}"/>
+    <hyperlink ref="B31" r:id="rId29" display="https://leetcode.com/problems/trapping-rain-water/description/" xr:uid="{F6A289BC-260A-6E4A-A90F-DEB6D1B63106}"/>
+    <hyperlink ref="B32" r:id="rId30" display="https://leetcode.com/problems/increasing-triplet-subsequence/description/" xr:uid="{C1ACA374-8654-3A49-A05C-33DE8644CEA0}"/>
+    <hyperlink ref="B33" r:id="rId31" display="https://leetcode.com/problems/longest-consecutive-sequence/description/" xr:uid="{0D0A29E6-60F8-364A-8D77-6CADA570B45F}"/>
+    <hyperlink ref="B34" r:id="rId32" display="https://leetcode.com/problems/maximum-gap/description/" xr:uid="{5C6F4024-70AA-4D4D-B84D-8C74E2932539}"/>
+    <hyperlink ref="B35" r:id="rId33" display="https://leetcode.com/problems/find-the-duplicate-number/description/" xr:uid="{FD8B0F6F-736B-AA43-910F-AE7248A41755}"/>
+    <hyperlink ref="B36" r:id="rId34" display="https://leetcode.com/problems/candy/description/" xr:uid="{207F53B7-E0AA-1247-9257-87AD1DA53992}"/>
+    <hyperlink ref="B37" r:id="rId35" display="https://leetcode.com/problems/patching-array/description/" xr:uid="{06BB3B66-F142-604A-86ED-0D1D13AFB9EE}"/>
+    <hyperlink ref="B39" r:id="rId36" display="https://leetcode.com/problems/median-of-two-sorted-arrays/description/" xr:uid="{ED8D58CF-2AED-6540-97BA-AE09A7909ABD}"/>
+    <hyperlink ref="B40" r:id="rId37" display="https://leetcode.com/problems/create-maximum-number/description/" xr:uid="{D2BC2EC6-9CE6-1F42-AE69-DDEBA77A0D28}"/>
+    <hyperlink ref="B41" r:id="rId38" display="https://leetcode.com/problems/count-of-range-sum/description/" xr:uid="{6597985D-9755-0547-B70B-F9D4B8D0FF8D}"/>
+    <hyperlink ref="B42" r:id="rId39" display="https://leetcode.com/problems/game-of-life/description/" xr:uid="{FF5D53B1-2548-1C41-A2E1-274C808C4519}"/>
+    <hyperlink ref="B44" r:id="rId40" display="https://leetcode.com/problems/insert-interval/description/" xr:uid="{AF1D03E7-32C8-0346-98E7-05A1FB9EF678}"/>
+    <hyperlink ref="B45" r:id="rId41" display="https://leetcode.com/problems/merge-intervals/description/" xr:uid="{D6839B87-5CF4-3548-B11F-97970C20DC15}"/>
+    <hyperlink ref="B46" r:id="rId42" display="https://leetcode.com/problems/meeting-rooms/description/" xr:uid="{0C17777B-BFEE-354B-9F0A-C51C8A7AAEC8}"/>
+    <hyperlink ref="B47" r:id="rId43" display="https://leetcode.com/problems/meeting-rooms-ii/description/" xr:uid="{AAAC9182-46A4-014E-9AA6-5E091FA2595E}"/>
+    <hyperlink ref="B48" r:id="rId44" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals/description/" xr:uid="{93877425-6E45-C647-850B-23EE26D26B6D}"/>
+    <hyperlink ref="B50" r:id="rId45" display="https://leetcode.com/problems/sliding-window-maximum/description/" xr:uid="{61903E7C-07F2-1A4F-8C00-088D47F985E3}"/>
+    <hyperlink ref="B51" r:id="rId46" display="https://leetcode.com/problems/find-median-from-data-stream/description/" xr:uid="{F1DEEE0D-EC43-6445-ABF7-6D1D44C68B2F}"/>
+    <hyperlink ref="B52" r:id="rId47" display="https://leetcode.com/problems/maximum-subarray/description/" xr:uid="{EE9C0787-AA8A-A148-BF5F-96C87279A715}"/>
+    <hyperlink ref="B53" r:id="rId48" display="https://leetcode.com/problems/maximum-size-subarray-sum-equals-k/" xr:uid="{77A83C2D-62F7-A641-AC7F-465B21EBDEC2}"/>
+    <hyperlink ref="B54" r:id="rId49" display="https://leetcode.com/problems/minimum-size-subarray-sum/description/" xr:uid="{DA7BF25A-B450-B04A-A81B-FAACA2231FDF}"/>
+    <hyperlink ref="B55" r:id="rId50" display="https://leetcode.com/problems/product-of-array-except-self/description/" xr:uid="{22626BB6-7F4F-6149-895F-60FB1C9753BA}"/>
+    <hyperlink ref="B56" r:id="rId51" display="https://leetcode.com/problems/maximum-product-subarray/description/" xr:uid="{1BC7D891-743C-294F-BF78-3BA560935434}"/>
+    <hyperlink ref="B57" r:id="rId52" display="https://leetcode.com/problems/summary-ranges/description/" xr:uid="{481F7B75-F764-F642-BEF7-81947CF57885}"/>
+    <hyperlink ref="B58" r:id="rId53" display="https://leetcode.com/problems/missing-ranges/description/" xr:uid="{CE4C70DC-BB63-2C43-86D8-DACE49117376}"/>
+    <hyperlink ref="B60" r:id="rId54" display="https://leetcode.com/problems/merge-sorted-array/description/" xr:uid="{9093AB17-90DD-4440-9C8D-F26EFFF8BFE1}"/>
+    <hyperlink ref="B61" r:id="rId55" display="https://leetcode.com/problems/sort-colors/description/" xr:uid="{50832502-A274-334E-A0D1-90297F4F268A}"/>
+    <hyperlink ref="B62" r:id="rId56" display="https://leetcode.com/problems/move-zeroes/description/" xr:uid="{BF138123-254A-B448-809D-14F73C3769D4}"/>
+    <hyperlink ref="B63" r:id="rId57" display="https://leetcode.com/problems/wiggle-subsequence/description/" xr:uid="{E1B4255B-CF05-1146-8EB0-2E5A7AF7C2A0}"/>
+    <hyperlink ref="B64" r:id="rId58" display="https://leetcode.com/problems/wiggle-sort/description/" xr:uid="{0636DCA1-C105-5844-B2F8-721E3973DCD8}"/>
+    <hyperlink ref="B65" r:id="rId59" display="https://leetcode.com/problems/wiggle-sort-ii/description/" xr:uid="{D27636CA-9F47-B84D-B209-3E10FC66C0B2}"/>
+    <hyperlink ref="B66" r:id="rId60" display="https://leetcode.com/problems/first-bad-version/description/" xr:uid="{20BBDC85-16E9-0B45-B42A-DB03EE028358}"/>
+    <hyperlink ref="B67" r:id="rId61" display="https://leetcode.com/problems/search-insert-position/description/" xr:uid="{76052040-56C2-0444-8592-8C05975B61E7}"/>
+    <hyperlink ref="B68" r:id="rId62" display="https://leetcode.com/problems/search-in-rotated-sorted-array/description/" xr:uid="{8C823853-9BD9-C841-A743-0CD4DFB1388B}"/>
+    <hyperlink ref="B69" r:id="rId63" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/" xr:uid="{D5CB589E-214E-164B-BC4F-9B5D96B924D0}"/>
+    <hyperlink ref="B70" r:id="rId64" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/" xr:uid="{2692D6EB-D1E5-DC4A-951F-36050E09009E}"/>
+    <hyperlink ref="B71" r:id="rId65" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii/description/" xr:uid="{F771A906-7A9C-8047-B382-F773A8EF6357}"/>
+    <hyperlink ref="B72" r:id="rId66" display="https://leetcode.com/problems/find-peak-element/description/" xr:uid="{2E66E660-38AF-0248-88F8-CB9CACEE534D}"/>
+    <hyperlink ref="B73" r:id="rId67" display="https://leetcode.com/problems/guess-number-higher-or-lower/" xr:uid="{60641208-8707-D643-9A07-917DD4F8D2B3}"/>
+    <hyperlink ref="B74" r:id="rId68" display="https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/" xr:uid="{18834042-CC77-8547-BE26-29D2703FB5A6}"/>
+    <hyperlink ref="B75" r:id="rId69" display="https://leetcode.com/problems/intersection-of-two-arrays/description/" xr:uid="{4B9E0DFD-1171-5441-9150-1A1426F30202}"/>
+    <hyperlink ref="B76" r:id="rId70" display="https://leetcode.com/problems/intersection-of-two-arrays-ii/description/" xr:uid="{95EEB786-1CC7-EE4D-BEEA-F4102964807B}"/>
+    <hyperlink ref="B77" r:id="rId71" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{73A6DA34-4791-0243-90B4-1EF25C540160}"/>
+    <hyperlink ref="B78" r:id="rId72" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{BD6782BB-EAE9-4547-AC36-79FEFD1E9F13}"/>
+    <hyperlink ref="B79" r:id="rId73" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{756A063B-C863-DC4D-AEA0-3B1FB4E0EAF5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C31955-1CE0-E845-8E07-880950040501}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2255,7 +3419,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32">
+    <row r="3" spans="1:8" ht="17">
       <c r="A3" s="7">
         <v>28</v>
       </c>
@@ -2268,7 +3432,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="32">
+    <row r="4" spans="1:8" ht="17">
       <c r="A4" s="7">
         <v>14</v>
       </c>
@@ -2281,7 +3445,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="48">
+    <row r="5" spans="1:8" ht="17">
       <c r="A5" s="7">
         <v>58</v>
       </c>
@@ -2959,11 +4123,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAD3DD7-948A-8A43-A82D-C4009A660293}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3547,7 +4711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD44232-D902-224C-ABAA-0E4EF437ED50}">
   <dimension ref="A1:E54"/>
   <sheetViews>
@@ -4239,12 +5403,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CAB4C4-860B-5F46-A41A-F6FD7189A72C}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -4320,8 +5484,8 @@
       </c>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="24">
+    <row r="6" spans="1:5" ht="18">
+      <c r="A6" s="22">
         <v>328</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -4330,9 +5494,11 @@
       <c r="C6" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" ht="108">
+      <c r="D6" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72">
       <c r="A7" s="16">
         <v>92</v>
       </c>
@@ -4357,7 +5523,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:5" ht="126">
+    <row r="9" spans="1:5" ht="90">
       <c r="A9" s="22">
         <v>19</v>
       </c>
@@ -4371,7 +5537,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="36">
       <c r="A10" s="16">
         <v>83</v>
       </c>
@@ -4379,7 +5545,9 @@
         <v>224</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="16"/>
+      <c r="D10" s="16" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="16">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95A7A02C-95DE-AD45-8A72-27E50B356418}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EC2DA59D-99D3-C14A-8368-B3065FD984E1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="333">
   <si>
     <t>题号</t>
   </si>
@@ -1111,12 +1111,106 @@
   <si>
     <t>Russian Doll Envelopes</t>
   </si>
+  <si>
+    <t>1.复制数组再根据映射交换数字 (n)
+2.旋转数组
+3.看成从数组开头取n个元素放入尾部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Hashset O(n) O(n)
+2.两次遍历, 利用swap在原有数组上吊环数字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.两个数组来模拟hashmap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector&lt;vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&gt;&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>res</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(numRows, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;());
+res[i].resize(i + 1, 1);</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1162,6 +1256,24 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF569CD6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1222,7 +1334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1308,6 +1420,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2473,13 +2594,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E31474-2082-8642-8DA0-1EC5F566967D}">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
@@ -2541,7 +2662,7 @@
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="17">
-      <c r="A6" s="26">
+      <c r="A6" s="29">
         <v>277</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -2550,24 +2671,28 @@
       <c r="C6" s="28"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5" ht="17">
+    <row r="7" spans="1:5" ht="48">
       <c r="A7" s="26">
         <v>189</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="28" t="s">
+        <v>329</v>
+      </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:5" ht="17">
+    <row r="8" spans="1:5" ht="48">
       <c r="A8" s="26">
         <v>41</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="C8" s="28" t="s">
+        <v>330</v>
+      </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="17">
@@ -2577,11 +2702,13 @@
       <c r="B9" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C9" s="28"/>
+      <c r="C9" s="28" t="s">
+        <v>331</v>
+      </c>
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" ht="17">
-      <c r="A10" s="26">
+      <c r="A10" s="30">
         <v>134</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -2590,7 +2717,7 @@
       <c r="C10" s="28"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" ht="18">
+    <row r="11" spans="1:5" ht="57">
       <c r="A11" s="26">
         <v>118</v>
       </c>
@@ -2598,6 +2725,9 @@
         <v>259</v>
       </c>
       <c r="C11" s="28"/>
+      <c r="D11" s="31" t="s">
+        <v>332</v>
+      </c>
       <c r="E11" s="26" t="s">
         <v>5</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EC2DA59D-99D3-C14A-8368-B3065FD984E1}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88485A0B-4E1A-DD41-B4F0-D871AC02CD3A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="336">
   <si>
     <t>题号</t>
   </si>
@@ -1128,81 +1128,38 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
       <t>vector&lt;vector&lt;</t>
     </r>
     <r>
       <rPr>
         <sz val="14"/>
-        <color rgb="FF569CD6"/>
+        <color theme="1"/>
         <rFont val="Menlo"/>
         <family val="2"/>
       </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&gt;&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>res</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(numRows, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>vector</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFD4D4D4"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;());
+      <t>int&gt;&gt; res(numRows, vector&lt;int&gt;());
 res[i].resize(i + 1, 1);</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘色是做了但是理解不清楚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.hashset
+2.sort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.动态规划
+2.Greedy algorithm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1210,7 +1167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1258,25 +1215,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Menlo"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF569CD6"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFDCDCAA"/>
+      <color theme="1"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1298,6 +1249,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1334,7 +1291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1425,10 +1382,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2592,10 +2555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E31474-2082-8642-8DA0-1EC5F566967D}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2604,9 +2567,10 @@
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
     <col min="5" max="5" width="37.5" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2622,16 +2586,22 @@
       <c r="E1" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18">
+      <c r="G1" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="32">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="1:5" ht="17">
+      <c r="G2" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="32">
       <c r="A3" s="26">
         <v>27</v>
       </c>
@@ -2640,8 +2610,11 @@
       </c>
       <c r="C3" s="28"/>
       <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" ht="32">
+      <c r="G3" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="48">
       <c r="A4" s="26">
         <v>26</v>
       </c>
@@ -2650,8 +2623,11 @@
       </c>
       <c r="C4" s="28"/>
       <c r="E4" s="26"/>
-    </row>
-    <row r="5" spans="1:5" ht="32">
+      <c r="G4" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="32">
       <c r="A5" s="26">
         <v>80</v>
       </c>
@@ -2660,8 +2636,11 @@
       </c>
       <c r="C5" s="28"/>
       <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="17">
+      <c r="G5" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="29">
         <v>277</v>
       </c>
@@ -2671,7 +2650,7 @@
       <c r="C6" s="28"/>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5" ht="48">
+    <row r="7" spans="1:7" ht="48">
       <c r="A7" s="26">
         <v>189</v>
       </c>
@@ -2683,7 +2662,7 @@
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:5" ht="48">
+    <row r="8" spans="1:7" ht="48">
       <c r="A8" s="26">
         <v>41</v>
       </c>
@@ -2695,7 +2674,7 @@
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:5" ht="17">
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="26">
         <v>299</v>
       </c>
@@ -2707,8 +2686,8 @@
       </c>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" ht="17">
-      <c r="A10" s="30">
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="31">
         <v>134</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -2717,7 +2696,7 @@
       <c r="C10" s="28"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" ht="57">
+    <row r="11" spans="1:7" ht="57">
       <c r="A11" s="26">
         <v>118</v>
       </c>
@@ -2725,15 +2704,15 @@
         <v>259</v>
       </c>
       <c r="C11" s="28"/>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>332</v>
       </c>
       <c r="E11" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18">
-      <c r="A12" s="26">
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="30">
         <v>119</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -2744,8 +2723,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18">
-      <c r="A13" s="26">
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="30">
         <v>169</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -2756,8 +2735,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18">
-      <c r="A14" s="26">
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="30">
         <v>229</v>
       </c>
       <c r="B14" s="28" t="s">
@@ -2768,7 +2747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="26">
         <v>274</v>
       </c>
@@ -2778,7 +2757,7 @@
       <c r="C15" s="28"/>
       <c r="E15" s="26"/>
     </row>
-    <row r="16" spans="1:5" ht="18">
+    <row r="16" spans="1:7" ht="18">
       <c r="A16" s="26">
         <v>275</v>
       </c>
@@ -2791,7 +2770,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="17">
-      <c r="A17" s="26">
+      <c r="A17" s="33">
         <v>243</v>
       </c>
       <c r="B17" s="28" t="s">
@@ -2801,7 +2780,7 @@
       <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" ht="17">
-      <c r="A18" s="26">
+      <c r="A18" s="33">
         <v>244</v>
       </c>
       <c r="B18" s="28" t="s">
@@ -2811,7 +2790,7 @@
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" ht="17">
-      <c r="A19" s="26">
+      <c r="A19" s="33">
         <v>245</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -2820,7 +2799,7 @@
       <c r="C19" s="28"/>
       <c r="E19" s="26"/>
     </row>
-    <row r="20" spans="1:5" ht="17">
+    <row r="20" spans="1:5" ht="32">
       <c r="A20" s="26">
         <v>217</v>
       </c>
@@ -2828,6 +2807,9 @@
         <v>269</v>
       </c>
       <c r="C20" s="28"/>
+      <c r="D20" s="18" t="s">
+        <v>334</v>
+      </c>
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" ht="18">
@@ -2854,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17">
+    <row r="23" spans="1:5" ht="32">
       <c r="A23" s="26">
         <v>55</v>
       </c>
@@ -2862,6 +2844,9 @@
         <v>272</v>
       </c>
       <c r="C23" s="28"/>
+      <c r="D23" s="18" t="s">
+        <v>335</v>
+      </c>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" ht="17">
@@ -3504,8 +3489,10 @@
     <hyperlink ref="B77" r:id="rId71" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self/description/" xr:uid="{73A6DA34-4791-0243-90B4-1EF25C540160}"/>
     <hyperlink ref="B78" r:id="rId72" display="https://leetcode.com/problems/longest-increasing-subsequence/description/" xr:uid="{BD6782BB-EAE9-4547-AC36-79FEFD1E9F13}"/>
     <hyperlink ref="B79" r:id="rId73" display="https://leetcode.com/problems/russian-doll-envelopes/description/" xr:uid="{756A063B-C863-DC4D-AEA0-3B1FB4E0EAF5}"/>
+    <hyperlink ref="G1" r:id="rId74" xr:uid="{263D20CE-DADB-934C-B925-E7979F02D2F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3514,7 +3501,7 @@
   <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88485A0B-4E1A-DD41-B4F0-D871AC02CD3A}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE6BC5C9-4DD7-C846-BCBD-C7E3C0F12EC4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="338">
   <si>
     <t>题号</t>
   </si>
@@ -1160,6 +1160,15 @@
   <si>
     <t>1.动态规划
 2.Greedy algorithm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.贪心算法
+2.bfs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1291,7 +1300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1392,6 +1401,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2558,7 +2570,7 @@
   <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2590,7 +2602,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
@@ -2601,7 +2613,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="26">
         <v>27</v>
       </c>
@@ -2614,7 +2626,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48">
+    <row r="4" spans="1:7" ht="32">
       <c r="A4" s="26">
         <v>26</v>
       </c>
@@ -2849,14 +2861,17 @@
       </c>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5" ht="17">
-      <c r="A24" s="26">
+    <row r="24" spans="1:5" ht="32">
+      <c r="A24" s="34">
         <v>45</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>273</v>
       </c>
       <c r="C24" s="28"/>
+      <c r="D24" s="18" t="s">
+        <v>336</v>
+      </c>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" ht="32">
@@ -2867,6 +2882,9 @@
         <v>274</v>
       </c>
       <c r="C25" s="28"/>
+      <c r="D25" s="19" t="s">
+        <v>337</v>
+      </c>
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" ht="32">
@@ -2939,7 +2957,7 @@
       <c r="C32" s="28"/>
       <c r="E32" s="26"/>
     </row>
-    <row r="33" spans="1:5" ht="32">
+    <row r="33" spans="1:5" ht="17">
       <c r="A33" s="26">
         <v>128</v>
       </c>
@@ -3125,7 +3143,7 @@
       <c r="C50" s="28"/>
       <c r="E50" s="26"/>
     </row>
-    <row r="51" spans="1:5" ht="32">
+    <row r="51" spans="1:5" ht="17">
       <c r="A51" s="26">
         <v>295</v>
       </c>
@@ -3165,7 +3183,7 @@
       <c r="C54" s="28"/>
       <c r="E54" s="26"/>
     </row>
-    <row r="55" spans="1:5" ht="32">
+    <row r="55" spans="1:5" ht="17">
       <c r="A55" s="26">
         <v>238</v>
       </c>
@@ -3343,7 +3361,7 @@
       <c r="C72" s="28"/>
       <c r="E72" s="26"/>
     </row>
-    <row r="73" spans="1:5" ht="32">
+    <row r="73" spans="1:5" ht="17">
       <c r="A73" s="26">
         <v>374</v>
       </c>
@@ -3353,7 +3371,7 @@
       <c r="C73" s="28"/>
       <c r="E73" s="26"/>
     </row>
-    <row r="74" spans="1:5" ht="48">
+    <row r="74" spans="1:5" ht="32">
       <c r="A74" s="26">
         <v>34</v>
       </c>
@@ -3373,7 +3391,7 @@
       <c r="C75" s="28"/>
       <c r="E75" s="26"/>
     </row>
-    <row r="76" spans="1:5" ht="32">
+    <row r="76" spans="1:5" ht="17">
       <c r="A76" s="26">
         <v>350</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE6BC5C9-4DD7-C846-BCBD-C7E3C0F12EC4}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8EF9938D-8C38-A54F-88DD-E5D94146C1F3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="339">
   <si>
     <t>题号</t>
   </si>
@@ -1169,6 +1169,13 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.反转S,成S'
+2.暴力法
+3.动态规划(谨慎的暴力法)
+4.中心扩展算法</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2569,8 +2576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E31474-2082-8642-8DA0-1EC5F566967D}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3518,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C31955-1CE0-E845-8E07-880950040501}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H2:H5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4050,7 +4057,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17">
+    <row r="49" spans="1:3" ht="17">
       <c r="A49" s="7">
         <v>266</v>
       </c>
@@ -4058,15 +4065,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17">
+    <row r="50" spans="1:3" ht="64">
       <c r="A50" s="7">
         <v>5</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="17">
+      <c r="C50" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17">
       <c r="A51" s="7">
         <v>9</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17">
+    <row r="52" spans="1:3" ht="17">
       <c r="A52" s="7">
         <v>214</v>
       </c>
@@ -4082,7 +4092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17">
+    <row r="53" spans="1:3" ht="17">
       <c r="A53" s="7">
         <v>336</v>
       </c>
@@ -4090,7 +4100,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17">
+    <row r="54" spans="1:3" ht="17">
       <c r="A54" s="7">
         <v>131</v>
       </c>
@@ -4098,7 +4108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17">
+    <row r="55" spans="1:3" ht="17">
       <c r="A55" s="7">
         <v>132</v>
       </c>
@@ -4106,7 +4116,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17">
+    <row r="56" spans="1:3" ht="17">
       <c r="A56" s="7">
         <v>267</v>
       </c>
@@ -4114,13 +4124,13 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17">
+    <row r="57" spans="1:3" ht="17">
       <c r="A57" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="7"/>
     </row>
-    <row r="58" spans="1:2" ht="17">
+    <row r="58" spans="1:3" ht="17">
       <c r="A58" s="7">
         <v>20</v>
       </c>
@@ -4128,7 +4138,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17">
+    <row r="59" spans="1:3" ht="17">
       <c r="A59" s="7">
         <v>22</v>
       </c>
@@ -4136,7 +4146,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17">
+    <row r="60" spans="1:3" ht="17">
       <c r="A60" s="7">
         <v>32</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17">
+    <row r="61" spans="1:3" ht="17">
       <c r="A61" s="7">
         <v>241</v>
       </c>
@@ -4152,7 +4162,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17">
+    <row r="62" spans="1:3" ht="17">
       <c r="A62" s="7">
         <v>301</v>
       </c>
@@ -4160,13 +4170,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17">
+    <row r="63" spans="1:3" ht="17">
       <c r="A63" s="7" t="s">
         <v>118</v>
       </c>
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="1:2" ht="17">
+    <row r="64" spans="1:3" ht="17">
       <c r="A64" s="7">
         <v>392</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8EF9938D-8C38-A54F-88DD-E5D94146C1F3}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E23ED30E-B006-4C43-ADE8-33F68EF33A59}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="array" sheetId="6" r:id="rId1"/>
@@ -1307,7 +1307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1412,6 +1412,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2576,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E31474-2082-8642-8DA0-1EC5F566967D}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3525,7 +3528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C31955-1CE0-E845-8E07-880950040501}">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -4272,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEAD3DD7-948A-8A43-A82D-C4009A660293}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4405,7 +4408,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="32">
-      <c r="A10" s="9">
+      <c r="A10" s="35">
         <v>29</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -5552,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CAB4C4-860B-5F46-A41A-F6FD7189A72C}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC0FC389-3704-4349-9601-3DBA339D6970}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E99D74D-5551-0B40-A6F0-199F5DA1ED61}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1107">
   <si>
     <t>题号</t>
   </si>
@@ -3475,6 +3475,23 @@
   </si>
   <si>
     <t>那么是如何得到的呢，我们通过观察原数组可以发现，如果从末尾往前看，数字逐渐变大，到了2时才减小的，然后再从后往前找第一个比2大的数字，是3，那么我们交换2和3，再把此时3后面的所有数字转置一下即可</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack 括号最长长度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次边界二分查找, 一次普通二分查找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>两次边界二分查找 (查找第一个不小于目标值的数，可变形为查找最后一个小于目标值的数)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/6854825.html
+二分查找总结</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4891,10 +4908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
-  <dimension ref="A1:E917"/>
+  <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4904,7 +4921,8 @@
     <col min="3" max="3" width="12.83203125" style="27" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="27" customWidth="1"/>
     <col min="5" max="5" width="54.83203125" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="27"/>
+    <col min="6" max="6" width="57.33203125" style="27" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16">
@@ -5361,7 +5379,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19">
+    <row r="33" spans="1:6" ht="19">
       <c r="A33" s="36">
         <v>32</v>
       </c>
@@ -5374,8 +5392,11 @@
       <c r="D33" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="19">
+      <c r="E33" s="18" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="32">
       <c r="A34" s="36">
         <v>33</v>
       </c>
@@ -5388,8 +5409,14 @@
       <c r="D34" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="19">
+      <c r="E34" s="18" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="32">
       <c r="A35" s="36">
         <v>34</v>
       </c>
@@ -5402,8 +5429,11 @@
       <c r="D35" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="19">
+      <c r="E35" s="18" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="19">
       <c r="A36" s="36">
         <v>35</v>
       </c>
@@ -5417,7 +5447,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="19">
+    <row r="37" spans="1:6" ht="19">
       <c r="A37" s="36">
         <v>36</v>
       </c>
@@ -5431,7 +5461,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="19">
+    <row r="38" spans="1:6" ht="19">
       <c r="A38" s="36">
         <v>37</v>
       </c>
@@ -5445,7 +5475,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="19">
+    <row r="39" spans="1:6" ht="19">
       <c r="A39" s="36">
         <v>38</v>
       </c>
@@ -5459,7 +5489,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19">
+    <row r="40" spans="1:6" ht="19">
       <c r="A40" s="36">
         <v>39</v>
       </c>
@@ -5473,7 +5503,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="19">
+    <row r="41" spans="1:6" ht="19">
       <c r="A41" s="36">
         <v>40</v>
       </c>
@@ -5487,7 +5517,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="19">
+    <row r="42" spans="1:6" ht="19">
       <c r="A42" s="36">
         <v>41</v>
       </c>
@@ -5501,7 +5531,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19">
+    <row r="43" spans="1:6" ht="19">
       <c r="A43" s="36">
         <v>42</v>
       </c>
@@ -5515,7 +5545,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19">
+    <row r="44" spans="1:6" ht="19">
       <c r="A44" s="36">
         <v>43</v>
       </c>
@@ -5529,7 +5559,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="19">
+    <row r="45" spans="1:6" ht="19">
       <c r="A45" s="36">
         <v>44</v>
       </c>
@@ -5543,7 +5573,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19">
+    <row r="46" spans="1:6" ht="19">
       <c r="A46" s="36">
         <v>45</v>
       </c>
@@ -5557,7 +5587,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="19">
+    <row r="47" spans="1:6" ht="19">
       <c r="A47" s="36">
         <v>46</v>
       </c>
@@ -5571,7 +5601,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="19">
+    <row r="48" spans="1:6" ht="19">
       <c r="A48" s="36">
         <v>47</v>
       </c>
@@ -18648,6 +18678,7 @@
     <hyperlink ref="B4" r:id="rId889" display="http://www.cnblogs.com/grandyang/p/4480780.html" xr:uid="{218D4C9A-C42B-C140-9ED9-96899A71018A}"/>
     <hyperlink ref="B3" r:id="rId890" display="http://www.cnblogs.com/grandyang/p/4129891.html" xr:uid="{40202E18-2DFF-2D4A-8249-938B2998F855}"/>
     <hyperlink ref="B2" r:id="rId891" display="http://www.cnblogs.com/grandyang/p/4130379.html" xr:uid="{D87F0ED6-2638-E145-AAFD-2A2D10FE270F}"/>
+    <hyperlink ref="F34" r:id="rId892" xr:uid="{3944DC0D-9ABD-5C44-976D-E705EF306262}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6E99D74D-5551-0B40-A6F0-199F5DA1ED61}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A24A3868-5007-7E4F-9AA3-9AB8F421D30D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1108">
   <si>
     <t>题号</t>
   </si>
@@ -3492,6 +3492,10 @@
   <si>
     <t>https://www.cnblogs.com/grandyang/p/6854825.html
 二分查找总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找第一个不小于(即大于等于)目标值的数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4911,7 +4915,7 @@
   <dimension ref="A1:F917"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5445,6 +5449,9 @@
       </c>
       <c r="D36" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A24A3868-5007-7E4F-9AA3-9AB8F421D30D}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D3F1EF9-7AB0-524A-ADB2-26D6217DC01D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2276" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="1111">
   <si>
     <t>题号</t>
   </si>
@@ -3496,6 +3496,19 @@
   </si>
   <si>
     <t>查找第一个不小于(即大于等于)目标值的数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归; 动态规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.排列枚举; 回溯; 2.数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://qoogle.top/recursive/
+递归: 实现指数型; 组合型; 排列型枚举</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4914,8 +4927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5622,7 +5635,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="19">
+    <row r="49" spans="1:6" ht="19">
       <c r="A49" s="36">
         <v>48</v>
       </c>
@@ -5636,7 +5649,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="19">
+    <row r="50" spans="1:6" ht="19">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -5650,7 +5663,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="19">
+    <row r="51" spans="1:6" ht="19">
       <c r="A51" s="36">
         <v>50</v>
       </c>
@@ -5664,7 +5677,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="19">
+    <row r="52" spans="1:6" ht="19">
       <c r="A52" s="36">
         <v>51</v>
       </c>
@@ -5678,7 +5691,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="19">
+    <row r="53" spans="1:6" ht="19">
       <c r="A53" s="36">
         <v>52</v>
       </c>
@@ -5692,7 +5705,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="19">
+    <row r="54" spans="1:6" ht="19">
       <c r="A54" s="36">
         <v>53</v>
       </c>
@@ -5706,7 +5719,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="19">
+    <row r="55" spans="1:6" ht="19">
       <c r="A55" s="36">
         <v>54</v>
       </c>
@@ -5720,7 +5733,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="19">
+    <row r="56" spans="1:6" ht="19">
       <c r="A56" s="36">
         <v>55</v>
       </c>
@@ -5734,7 +5747,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="19">
+    <row r="57" spans="1:6" ht="19">
       <c r="A57" s="36">
         <v>56</v>
       </c>
@@ -5748,7 +5761,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="19">
+    <row r="58" spans="1:6" ht="19">
       <c r="A58" s="36">
         <v>57</v>
       </c>
@@ -5762,7 +5775,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="19">
+    <row r="59" spans="1:6" ht="19">
       <c r="A59" s="36">
         <v>58</v>
       </c>
@@ -5776,7 +5789,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="19">
+    <row r="60" spans="1:6" ht="19">
       <c r="A60" s="36">
         <v>59</v>
       </c>
@@ -5790,7 +5803,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="19">
+    <row r="61" spans="1:6" ht="32">
       <c r="A61" s="36">
         <v>60</v>
       </c>
@@ -5803,8 +5816,14 @@
       <c r="D61" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="19">
+      <c r="E61" s="18" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="19">
       <c r="A62" s="36">
         <v>61</v>
       </c>
@@ -5818,7 +5837,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="19">
+    <row r="63" spans="1:6" ht="19">
       <c r="A63" s="36">
         <v>62</v>
       </c>
@@ -5831,8 +5850,11 @@
       <c r="D63" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="19">
+      <c r="E63" s="18" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="19">
       <c r="A64" s="36">
         <v>63</v>
       </c>
@@ -18686,6 +18708,7 @@
     <hyperlink ref="B3" r:id="rId890" display="http://www.cnblogs.com/grandyang/p/4129891.html" xr:uid="{40202E18-2DFF-2D4A-8249-938B2998F855}"/>
     <hyperlink ref="B2" r:id="rId891" display="http://www.cnblogs.com/grandyang/p/4130379.html" xr:uid="{D87F0ED6-2638-E145-AAFD-2A2D10FE270F}"/>
     <hyperlink ref="F34" r:id="rId892" xr:uid="{3944DC0D-9ABD-5C44-976D-E705EF306262}"/>
+    <hyperlink ref="F61" r:id="rId893" xr:uid="{62BE3412-C7FA-204E-969A-045D18008992}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D3F1EF9-7AB0-524A-ADB2-26D6217DC01D}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FAFEAC2-2EB7-114D-B55B-2403ECECF876}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3503,12 +3503,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.排列枚举; 回溯; 2.数学</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://qoogle.top/recursive/
 递归: 实现指数型; 组合型; 排列型枚举</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.排列型枚举; 回溯; 2.数学</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3646,7 +3646,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3762,6 +3762,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4928,7 +4931,7 @@
   <dimension ref="A1:F917"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5804,7 +5807,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="32">
-      <c r="A61" s="36">
+      <c r="A61" s="39">
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
@@ -5817,10 +5820,10 @@
         <v>340</v>
       </c>
       <c r="E61" s="18" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F61" s="28" t="s">
         <v>1109</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FAFEAC2-2EB7-114D-B55B-2403ECECF876}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5099A6B-4F6A-2646-8066-1CD47C7FFA71}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1112">
   <si>
     <t>题号</t>
   </si>
@@ -3499,16 +3499,20 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>递归; 动态规划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://qoogle.top/recursive/
 递归: 实现指数型; 组合型; 排列型枚举</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.排列型枚举; 回溯; 2.数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.circular list ;  2. stack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归; 2.记忆递归 自顶向下 3.动态规划 自底向上 4.空间压缩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4930,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5820,10 +5824,10 @@
         <v>340</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19">
@@ -5839,8 +5843,11 @@
       <c r="D62" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="19">
+      <c r="E62" s="18" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="32">
       <c r="A63" s="36">
         <v>62</v>
       </c>
@@ -5854,7 +5861,7 @@
         <v>340</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5099A6B-4F6A-2646-8066-1CD47C7FFA71}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88AEC26E-83BE-D64C-ADA5-6E68D02DABBE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">string!$A$1:$E$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1115">
   <si>
     <t>题号</t>
   </si>
@@ -3385,9 +3386,6 @@
     <t>Edit Distance</t>
   </si>
   <si>
-    <t>Simplify Path</t>
-  </si>
-  <si>
     <t>Climbing Stairs</t>
   </si>
   <si>
@@ -3513,6 +3511,25 @@
   </si>
   <si>
     <t>1.递归; 2.记忆递归 自顶向下 3.动态规划 自底向上 4.空间压缩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限状态机和状态表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.二分搜索
+2.牛顿法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. recursive
+2. dynamic programming
+3. memory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simplify Path</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3520,7 +3537,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3582,6 +3599,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FF494949"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3650,7 +3673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3769,6 +3792,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4934,8 +4960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4951,19 +4977,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16">
       <c r="A1" s="18" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1097</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>1098</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>1099</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>1100</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
@@ -5097,7 +5123,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C11" s="37">
         <v>0.20699999999999999</v>
@@ -5195,7 +5221,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C18" s="37">
         <v>0.25800000000000001</v>
@@ -5391,7 +5417,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C32" s="37">
         <v>0.25</v>
@@ -5400,7 +5426,7 @@
         <v>340</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19">
@@ -5417,7 +5443,7 @@
         <v>349</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
@@ -5434,10 +5460,10 @@
         <v>349</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32">
@@ -5445,7 +5471,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C35" s="37">
         <v>0.27500000000000002</v>
@@ -5454,7 +5480,7 @@
         <v>340</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19">
@@ -5471,7 +5497,7 @@
         <v>340</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19">
@@ -5479,7 +5505,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C37" s="37">
         <v>0.27200000000000002</v>
@@ -5493,7 +5519,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C38" s="37">
         <v>0.218</v>
@@ -5521,7 +5547,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C40" s="37">
         <v>0.27900000000000003</v>
@@ -5535,7 +5561,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C41" s="37">
         <v>0.252</v>
@@ -5591,7 +5617,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C45" s="37">
         <v>0.15</v>
@@ -5619,7 +5645,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C47" s="37">
         <v>0.31900000000000001</v>
@@ -5633,7 +5659,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C48" s="37">
         <v>0.25800000000000001</v>
@@ -5647,7 +5673,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C49" s="37">
         <v>0.31900000000000001</v>
@@ -5661,7 +5687,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C50" s="37">
         <v>0.24299999999999999</v>
@@ -5689,7 +5715,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C52" s="37">
         <v>0.26500000000000001</v>
@@ -5703,7 +5729,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C53" s="37">
         <v>0.35799999999999998</v>
@@ -5731,7 +5757,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C55" s="37">
         <v>0.20799999999999999</v>
@@ -5801,7 +5827,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C60" s="37">
         <v>0.318</v>
@@ -5815,7 +5841,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C61" s="37">
         <v>0.22800000000000001</v>
@@ -5824,10 +5850,10 @@
         <v>340</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19">
@@ -5844,7 +5870,7 @@
         <v>340</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="32">
@@ -5852,7 +5878,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C63" s="37">
         <v>0.32800000000000001</v>
@@ -5861,7 +5887,7 @@
         <v>340</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19">
@@ -5869,7 +5895,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C64" s="37">
         <v>0.28000000000000003</v>
@@ -5878,12 +5904,12 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="19">
+    <row r="65" spans="1:5" ht="19">
       <c r="A65" s="36">
         <v>64</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C65" s="37">
         <v>0.32200000000000001</v>
@@ -5892,7 +5918,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="19">
+    <row r="66" spans="1:5" ht="19">
       <c r="A66" s="36">
         <v>65</v>
       </c>
@@ -5905,8 +5931,11 @@
       <c r="D66" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="19">
+      <c r="E66" s="18" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="19">
       <c r="A67" s="36">
         <v>66</v>
       </c>
@@ -5920,7 +5949,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="19">
+    <row r="68" spans="1:5" ht="19">
       <c r="A68" s="36">
         <v>67</v>
       </c>
@@ -5934,8 +5963,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="19">
-      <c r="A69" s="36">
+    <row r="69" spans="1:5" ht="19">
+      <c r="A69" s="40">
         <v>68</v>
       </c>
       <c r="B69" s="14" t="s">
@@ -5948,7 +5977,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="19">
+    <row r="70" spans="1:5" ht="32">
       <c r="A70" s="36">
         <v>69</v>
       </c>
@@ -5961,13 +5990,16 @@
       <c r="D70" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="19">
+      <c r="E70" s="18" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="48">
       <c r="A71" s="36">
         <v>70</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C71" s="37">
         <v>0.34399999999999997</v>
@@ -5975,13 +6007,16 @@
       <c r="D71" s="36" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="19">
+      <c r="E71" s="18" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="19">
       <c r="A72" s="36">
         <v>71</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1074</v>
+        <v>1114</v>
       </c>
       <c r="C72" s="37">
         <v>0.2</v>
@@ -5990,7 +6025,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="19">
+    <row r="73" spans="1:5" ht="19">
       <c r="A73" s="36">
         <v>72</v>
       </c>
@@ -6004,7 +6039,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="19">
+    <row r="74" spans="1:5" ht="19">
       <c r="A74" s="36">
         <v>73</v>
       </c>
@@ -6018,7 +6053,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="19">
+    <row r="75" spans="1:5" ht="19">
       <c r="A75" s="36">
         <v>74</v>
       </c>
@@ -6032,7 +6067,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="19">
+    <row r="76" spans="1:5" ht="19">
       <c r="A76" s="36">
         <v>75</v>
       </c>
@@ -6046,7 +6081,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="19">
+    <row r="77" spans="1:5" ht="19">
       <c r="A77" s="36">
         <v>76</v>
       </c>
@@ -6060,7 +6095,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="19">
+    <row r="78" spans="1:5" ht="19">
       <c r="A78" s="36">
         <v>77</v>
       </c>
@@ -6074,7 +6109,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="19">
+    <row r="79" spans="1:5" ht="19">
       <c r="A79" s="36">
         <v>78</v>
       </c>
@@ -6088,7 +6123,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="19">
+    <row r="80" spans="1:5" ht="19">
       <c r="A80" s="36">
         <v>79</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88AEC26E-83BE-D64C-ADA5-6E68D02DABBE}"/>
+  <xr:revisionPtr revIDLastSave="198" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDBADE47-F80C-CF4E-B791-4610912E287D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">string!$A$1:$E$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="1120">
   <si>
     <t>题号</t>
   </si>
@@ -3530,6 +3529,26 @@
   </si>
   <si>
     <t>Simplify Path</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.in-place algorithm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.split('/') &amp; stack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slip window</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>three pointers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bisearch</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3673,7 +3692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3795,6 +3814,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4960,8 +4982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6024,9 +6046,12 @@
       <c r="D72" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E72" s="18" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="19">
-      <c r="A73" s="36">
+      <c r="A73" s="41">
         <v>72</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -6052,6 +6077,9 @@
       <c r="D74" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E74" s="18" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="75" spans="1:5" ht="19">
       <c r="A75" s="36">
@@ -6066,6 +6094,9 @@
       <c r="D75" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E75" s="18" t="s">
+        <v>1119</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="19">
       <c r="A76" s="36">
@@ -6080,6 +6111,9 @@
       <c r="D76" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E76" s="18" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="19">
       <c r="A77" s="36">
@@ -6093,6 +6127,9 @@
       </c>
       <c r="D77" s="36" t="s">
         <v>349</v>
+      </c>
+      <c r="E77" s="18" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="19">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDBADE47-F80C-CF4E-B791-4610912E287D}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EED97E95-58D9-2D48-AACF-34830F6CD048}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1121">
   <si>
     <t>题号</t>
   </si>
@@ -3549,6 +3549,12 @@
   </si>
   <si>
     <t>bisearch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暴力
+2.divide and conquer
+3. stack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4982,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6174,7 +6180,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="19">
+    <row r="81" spans="1:5" ht="19">
       <c r="A81" s="36">
         <v>80</v>
       </c>
@@ -6188,7 +6194,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="19">
+    <row r="82" spans="1:5" ht="19">
       <c r="A82" s="36">
         <v>81</v>
       </c>
@@ -6202,7 +6208,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="19">
+    <row r="83" spans="1:5" ht="19">
       <c r="A83" s="36">
         <v>82</v>
       </c>
@@ -6216,7 +6222,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="19">
+    <row r="84" spans="1:5" ht="19">
       <c r="A84" s="36">
         <v>83</v>
       </c>
@@ -6230,8 +6236,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="19">
-      <c r="A85" s="36">
+    <row r="85" spans="1:5" ht="48">
+      <c r="A85" s="40">
         <v>84</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -6243,9 +6249,12 @@
       <c r="D85" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="19">
-      <c r="A86" s="36">
+      <c r="E85" s="18" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="19">
+      <c r="A86" s="40">
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -6258,7 +6267,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="19">
+    <row r="87" spans="1:5" ht="19">
       <c r="A87" s="36">
         <v>86</v>
       </c>
@@ -6272,7 +6281,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="19">
+    <row r="88" spans="1:5" ht="19">
       <c r="A88" s="36">
         <v>87</v>
       </c>
@@ -6286,7 +6295,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="19">
+    <row r="89" spans="1:5" ht="19">
       <c r="A89" s="36">
         <v>88</v>
       </c>
@@ -6300,7 +6309,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="19">
+    <row r="90" spans="1:5" ht="19">
       <c r="A90" s="36">
         <v>89</v>
       </c>
@@ -6314,7 +6323,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="19">
+    <row r="91" spans="1:5" ht="19">
       <c r="A91" s="36">
         <v>90</v>
       </c>
@@ -6328,7 +6337,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="19">
+    <row r="92" spans="1:5" ht="19">
       <c r="A92" s="36">
         <v>91</v>
       </c>
@@ -6342,7 +6351,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="19">
+    <row r="93" spans="1:5" ht="19">
       <c r="A93" s="36">
         <v>92</v>
       </c>
@@ -6356,7 +6365,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="19">
+    <row r="94" spans="1:5" ht="19">
       <c r="A94" s="36">
         <v>93</v>
       </c>
@@ -6370,7 +6379,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="19">
+    <row r="95" spans="1:5" ht="19">
       <c r="A95" s="36">
         <v>94</v>
       </c>
@@ -6384,7 +6393,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="19">
+    <row r="96" spans="1:5" ht="19">
       <c r="A96" s="36">
         <v>95</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EED97E95-58D9-2D48-AACF-34830F6CD048}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71FF9DE0-372E-0A4B-B783-80C90AD5B307}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1122">
   <si>
     <t>题号</t>
   </si>
@@ -3555,6 +3555,12 @@
     <t>1.暴力
 2.divide and conquer
 3. stack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.合并后排序 
+2.双指针/ 从前往后
+3. 双指针/ 从后往前</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4988,8 +4994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6295,7 +6301,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="19">
+    <row r="89" spans="1:5" ht="48">
       <c r="A89" s="36">
         <v>88</v>
       </c>
@@ -6307,6 +6313,9 @@
       </c>
       <c r="D89" s="36" t="s">
         <v>343</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71FF9DE0-372E-0A4B-B783-80C90AD5B307}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB4257CA-0AC4-7148-9E89-50294A6AD1DF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1124">
   <si>
     <t>题号</t>
   </si>
@@ -3563,12 +3563,21 @@
 3. 双指针/ 从后往前</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>数学推导 -》动态规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归
+2.中序遍历</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3639,6 +3648,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3704,7 +3718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3829,6 +3843,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4994,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6403,7 +6420,7 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="19">
-      <c r="A96" s="36">
+      <c r="A96" s="40">
         <v>95</v>
       </c>
       <c r="B96" s="14" t="s">
@@ -6416,8 +6433,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="19">
-      <c r="A97" s="36">
+    <row r="97" spans="1:5" ht="19">
+      <c r="A97" s="42">
         <v>96</v>
       </c>
       <c r="B97" s="14" t="s">
@@ -6429,9 +6446,12 @@
       <c r="D97" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="19">
-      <c r="A98" s="36">
+      <c r="E97" s="18" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="19">
+      <c r="A98" s="40">
         <v>97</v>
       </c>
       <c r="B98" s="14" t="s">
@@ -6444,7 +6464,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="19">
+    <row r="99" spans="1:5" ht="19">
       <c r="A99" s="36">
         <v>98</v>
       </c>
@@ -6458,7 +6478,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="19">
+    <row r="100" spans="1:5" ht="32">
       <c r="A100" s="36">
         <v>99</v>
       </c>
@@ -6471,8 +6491,11 @@
       <c r="D100" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="19">
+      <c r="E100" s="18" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="19">
       <c r="A101" s="36">
         <v>100</v>
       </c>
@@ -6486,7 +6509,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="19">
+    <row r="102" spans="1:5" ht="19">
       <c r="A102" s="36">
         <v>101</v>
       </c>
@@ -6500,7 +6523,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="19">
+    <row r="103" spans="1:5" ht="19">
       <c r="A103" s="36">
         <v>102</v>
       </c>
@@ -6514,7 +6537,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="32">
+    <row r="104" spans="1:5" ht="32">
       <c r="A104" s="36">
         <v>103</v>
       </c>
@@ -6528,7 +6551,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="19">
+    <row r="105" spans="1:5" ht="19">
       <c r="A105" s="36">
         <v>104</v>
       </c>
@@ -6542,7 +6565,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="32">
+    <row r="106" spans="1:5" ht="32">
       <c r="A106" s="36">
         <v>105</v>
       </c>
@@ -6556,7 +6579,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="32">
+    <row r="107" spans="1:5" ht="32">
       <c r="A107" s="36">
         <v>106</v>
       </c>
@@ -6570,7 +6593,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="19">
+    <row r="108" spans="1:5" ht="19">
       <c r="A108" s="36">
         <v>107</v>
       </c>
@@ -6584,7 +6607,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="32">
+    <row r="109" spans="1:5" ht="32">
       <c r="A109" s="36">
         <v>108</v>
       </c>
@@ -6598,7 +6621,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="32">
+    <row r="110" spans="1:5" ht="32">
       <c r="A110" s="36">
         <v>109</v>
       </c>
@@ -6612,7 +6635,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="19">
+    <row r="111" spans="1:5" ht="19">
       <c r="A111" s="36">
         <v>110</v>
       </c>
@@ -6626,7 +6649,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="19">
+    <row r="112" spans="1:5" ht="19">
       <c r="A112" s="36">
         <v>111</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB4257CA-0AC4-7148-9E89-50294A6AD1DF}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4385ABA4-B5E5-154E-9658-21C7E2B2B4ED}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="1124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="1133">
   <si>
     <t>题号</t>
   </si>
@@ -3467,10 +3467,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>步骤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>那么是如何得到的呢，我们通过观察原数组可以发现，如果从末尾往前看，数字逐渐变大，到了2时才减小的，然后再从后往前找第一个比2大的数字，是3，那么我们交换2和3，再把此时3后面的所有数字转置一下即可</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3570,6 +3566,64 @@
   <si>
     <t>1.递归
 2.中序遍历</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Hash set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.滑动窗口</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暴力
+2.动态规划
+3.中心扩展</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归
+2.memo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.双指针</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.sort&amp;&amp;双指针
+2.hash set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.回溯 (全排列)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思路</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>画图 https://leetcode-cn.com/problems/generate-parentheses/solution/hui-su-suan-fa-by-liweiwei1419/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.回溯 (全排列)
+深度优先遍历+广度优先遍历
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动态规划</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3577,7 +3631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3652,6 +3706,13 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5011,8 +5072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5021,7 +5082,7 @@
     <col min="2" max="2" width="39.83203125" style="27" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" style="27" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="54.83203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="27" customWidth="1"/>
     <col min="6" max="6" width="57.33203125" style="27" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="27"/>
   </cols>
@@ -5040,7 +5101,7 @@
         <v>1099</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1100</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
@@ -5056,6 +5117,9 @@
       <c r="D2" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E2" s="18" t="s">
+        <v>1123</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="19">
       <c r="A3" s="36">
@@ -5084,9 +5148,12 @@
       <c r="D4" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E4" s="18" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="19">
-      <c r="A5" s="36">
+      <c r="A5" s="40">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -5099,7 +5166,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19">
+    <row r="6" spans="1:5" ht="48">
       <c r="A6" s="36">
         <v>5</v>
       </c>
@@ -5111,6 +5178,9 @@
       </c>
       <c r="D6" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19">
@@ -5169,7 +5239,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19">
+    <row r="11" spans="1:5" ht="32">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -5181,6 +5251,9 @@
       </c>
       <c r="D11" s="36" t="s">
         <v>349</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19">
@@ -5196,6 +5269,9 @@
       <c r="D12" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E12" s="18" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="19">
       <c r="A13" s="36">
@@ -5239,7 +5315,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19">
+    <row r="16" spans="1:5" ht="32">
       <c r="A16" s="36">
         <v>15</v>
       </c>
@@ -5252,8 +5328,11 @@
       <c r="D16" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19">
+      <c r="E16" s="18" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19">
       <c r="A17" s="36">
         <v>16</v>
       </c>
@@ -5267,8 +5346,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19">
-      <c r="A18" s="36">
+    <row r="18" spans="1:6" ht="19">
+      <c r="A18" s="41">
         <v>17</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -5280,8 +5359,11 @@
       <c r="D18" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19">
+      <c r="E18" s="18" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="19">
       <c r="A19" s="36">
         <v>18</v>
       </c>
@@ -5295,7 +5377,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19">
+    <row r="20" spans="1:6" ht="19">
       <c r="A20" s="36">
         <v>19</v>
       </c>
@@ -5309,7 +5391,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19">
+    <row r="21" spans="1:6" ht="19">
       <c r="A21" s="36">
         <v>20</v>
       </c>
@@ -5323,7 +5405,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19">
+    <row r="22" spans="1:6" ht="19">
       <c r="A22" s="36">
         <v>21</v>
       </c>
@@ -5337,7 +5419,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19">
+    <row r="23" spans="1:6" ht="48">
       <c r="A23" s="36">
         <v>22</v>
       </c>
@@ -5350,8 +5432,14 @@
       <c r="D23" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19">
+      <c r="E23" s="18" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19">
       <c r="A24" s="36">
         <v>23</v>
       </c>
@@ -5365,7 +5453,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19">
+    <row r="25" spans="1:6" ht="19">
       <c r="A25" s="36">
         <v>24</v>
       </c>
@@ -5379,7 +5467,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19">
+    <row r="26" spans="1:6" ht="19">
       <c r="A26" s="36">
         <v>25</v>
       </c>
@@ -5393,7 +5481,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19">
+    <row r="27" spans="1:6" ht="19">
       <c r="A27" s="36">
         <v>26</v>
       </c>
@@ -5407,7 +5495,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19">
+    <row r="28" spans="1:6" ht="19">
       <c r="A28" s="36">
         <v>27</v>
       </c>
@@ -5421,7 +5509,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19">
+    <row r="29" spans="1:6" ht="19">
       <c r="A29" s="36">
         <v>28</v>
       </c>
@@ -5435,7 +5523,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19">
+    <row r="30" spans="1:6" ht="19">
       <c r="A30" s="36">
         <v>29</v>
       </c>
@@ -5449,7 +5537,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="32">
+    <row r="31" spans="1:6" ht="32">
       <c r="A31" s="36">
         <v>30</v>
       </c>
@@ -5463,7 +5551,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="64">
+    <row r="32" spans="1:6" ht="64">
       <c r="A32" s="38">
         <v>31</v>
       </c>
@@ -5477,7 +5565,7 @@
         <v>340</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19">
@@ -5494,7 +5582,7 @@
         <v>349</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="32">
@@ -5511,10 +5599,10 @@
         <v>349</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="32">
@@ -5531,7 +5619,7 @@
         <v>340</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="19">
@@ -5548,7 +5636,7 @@
         <v>340</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19">
@@ -5901,10 +5989,10 @@
         <v>340</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19">
@@ -5921,7 +6009,7 @@
         <v>340</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="32">
@@ -5938,7 +6026,7 @@
         <v>340</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19">
@@ -5983,7 +6071,7 @@
         <v>349</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19">
@@ -6042,7 +6130,7 @@
         <v>340</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="48">
@@ -6059,7 +6147,7 @@
         <v>343</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19">
@@ -6067,7 +6155,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C72" s="37">
         <v>0.2</v>
@@ -6076,7 +6164,7 @@
         <v>340</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="19">
@@ -6107,7 +6195,7 @@
         <v>340</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="19">
@@ -6124,7 +6212,7 @@
         <v>340</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19">
@@ -6141,7 +6229,7 @@
         <v>340</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="19">
@@ -6158,7 +6246,7 @@
         <v>349</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="19">
@@ -6273,7 +6361,7 @@
         <v>349</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="19">
@@ -6332,7 +6420,7 @@
         <v>343</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19">
@@ -6447,7 +6535,7 @@
         <v>340</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19">
@@ -6492,7 +6580,7 @@
         <v>349</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="19">
@@ -18841,7 +18929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E31474-2082-8642-8DA0-1EC5F566967D}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4385ABA4-B5E5-154E-9658-21C7E2B2B4ED}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FEFB4BC1-3180-1648-9B59-788B62955F13}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2301" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1137">
   <si>
     <t>题号</t>
   </si>
@@ -3471,18 +3471,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>stack 括号最长长度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次边界二分查找, 一次普通二分查找</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>两次边界二分查找 (查找第一个不小于目标值的数，可变形为查找最后一个小于目标值的数)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.cnblogs.com/grandyang/p/6854825.html
 二分查找总结</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3580,11 +3568,6 @@
     <t>1.暴力
 2.动态规划
 3.中心扩展</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.递归
-2.memo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3624,6 +3607,64 @@
       </rPr>
       <t>动态规划</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.暴力
+2.逐一比较
+3.用优先队列优化方法2
+4.逐一两两合并
+5.分而治之</t>
+  </si>
+  <si>
+    <t>1.暴力
+2.逐一比较
+3.用优先队列优化方法2
+4.逐一两两合并
+5.分而治之</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.暴力: 考虑字符串中每种可能的非空偶数长度子字符串
+2.动态规划
+3.栈
+4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计数器left和right</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.一次边界二分查找, 一次普通二分查找
+2.二分查找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归
+2.memo
+3.动态规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/find-first-and-last-position-of-element-in-sorted-array/solution/er-fen-cha-zhao-suan-fa-xi-jie-xiang-jie-by-labula/
+二分查找tricky</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.两次边界二分查找</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5072,8 +5113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5101,7 +5142,7 @@
         <v>1099</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
@@ -5118,7 +5159,7 @@
         <v>340</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19">
@@ -5149,7 +5190,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19">
@@ -5180,7 +5221,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19">
@@ -5239,7 +5280,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32">
+    <row r="11" spans="1:5" ht="48">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -5253,7 +5294,7 @@
         <v>349</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19">
@@ -5270,7 +5311,7 @@
         <v>340</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19">
@@ -5329,7 +5370,7 @@
         <v>340</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19">
@@ -5360,7 +5401,7 @@
         <v>340</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19">
@@ -5433,13 +5474,13 @@
         <v>340</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="19">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="80">
       <c r="A24" s="36">
         <v>23</v>
       </c>
@@ -5452,8 +5493,11 @@
       <c r="D24" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="19">
+      <c r="E24" s="21" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="80">
       <c r="A25" s="36">
         <v>24</v>
       </c>
@@ -5465,6 +5509,9 @@
       </c>
       <c r="D25" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19">
@@ -5565,10 +5612,13 @@
         <v>340</v>
       </c>
       <c r="E32" s="18" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="19">
+    <row r="33" spans="1:6" ht="80">
       <c r="A33" s="36">
         <v>32</v>
       </c>
@@ -5582,10 +5632,10 @@
         <v>349</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="32">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="48">
       <c r="A34" s="36">
         <v>33</v>
       </c>
@@ -5599,13 +5649,13 @@
         <v>349</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>1102</v>
+        <v>1133</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="32">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="64">
       <c r="A35" s="36">
         <v>34</v>
       </c>
@@ -5619,10 +5669,13 @@
         <v>340</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="19">
+        <v>1136</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="32">
       <c r="A36" s="36">
         <v>35</v>
       </c>
@@ -5636,7 +5689,7 @@
         <v>340</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="19">
@@ -5989,10 +6042,10 @@
         <v>340</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="19">
@@ -6009,7 +6062,7 @@
         <v>340</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="32">
@@ -6026,7 +6079,7 @@
         <v>340</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19">
@@ -6071,7 +6124,7 @@
         <v>349</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="19">
@@ -6130,7 +6183,7 @@
         <v>340</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="48">
@@ -6147,7 +6200,7 @@
         <v>343</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="19">
@@ -6155,7 +6208,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="C72" s="37">
         <v>0.2</v>
@@ -6164,7 +6217,7 @@
         <v>340</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="19">
@@ -6195,7 +6248,7 @@
         <v>340</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="19">
@@ -6212,7 +6265,7 @@
         <v>340</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="19">
@@ -6229,7 +6282,7 @@
         <v>340</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="19">
@@ -6246,7 +6299,7 @@
         <v>349</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="19">
@@ -6361,7 +6414,7 @@
         <v>349</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="19">
@@ -6420,7 +6473,7 @@
         <v>343</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19">
@@ -6535,7 +6588,7 @@
         <v>340</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19">
@@ -6580,7 +6633,7 @@
         <v>349</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="19">
@@ -18920,6 +18973,7 @@
     <hyperlink ref="B2" r:id="rId891" display="http://www.cnblogs.com/grandyang/p/4130379.html" xr:uid="{D87F0ED6-2638-E145-AAFD-2A2D10FE270F}"/>
     <hyperlink ref="F34" r:id="rId892" xr:uid="{3944DC0D-9ABD-5C44-976D-E705EF306262}"/>
     <hyperlink ref="F61" r:id="rId893" xr:uid="{62BE3412-C7FA-204E-969A-045D18008992}"/>
+    <hyperlink ref="F35" r:id="rId894" xr:uid="{B6CCB994-78C5-EB44-A94C-25520D424041}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FEFB4BC1-3180-1648-9B59-788B62955F13}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6F949A3-68F5-854C-A9B5-E2E0AEF73CFB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1152">
   <si>
     <t>题号</t>
   </si>
@@ -3493,22 +3493,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.递归; 2.记忆递归 自顶向下 3.动态规划 自底向上 4.空间压缩</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>有限状态机和状态表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.二分搜索
 2.牛顿法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. recursive
-2. dynamic programming
-3. memory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3665,6 +3655,139 @@
   </si>
   <si>
     <t>1.两次边界二分查找</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.回溯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.暴力 按列求
+2.动态编程暴力算法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.栈
+4.双指针</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.回溯 (添加一个used数组判定)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutations/solution/hui-su-suan-fa-xiang-jie-by-labuladong-2/
+回溯算法详解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学
+1.找规律
+2.翻转整个数组, 再按正对角线交换两边的数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.排序查找
+2.质数映射
+3.按计数分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximum-subarray/solution/zui-da-zi-xu-he-cshi-xian-si-chong-jie-fa-bao-li-f/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种遍历方式
+https://leetcode-cn.com/problems/maximum-subarray/solution/xiang-xi-jie-du-dong-tai-gui-hua-de-shi-xian-yi-li/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.暴力
+2.动态规划(状态压缩)
+3.贪心法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4.分治法</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.*
+2.模拟机器人步伐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.*对每一个能作为 起跳点 的格子都尝试跳一次，把 能跳到最远的距离 不断更新。
+2.回溯
+3.动态规划
+4.贪心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.排序 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.递归; 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记忆递归 自顶向下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 3.动态规划 自底向上 4.空间压缩</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.动态规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 递归
+2.记忆化递归
+3.动态规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归
+2.动态规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/edit-distance/solution/bian-ji-ju-chi-mian-shi-ti-xiang-jie-by-labuladong/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5113,8 +5236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5142,7 +5265,7 @@
         <v>1099</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
@@ -5159,7 +5282,7 @@
         <v>340</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19">
@@ -5190,7 +5313,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19">
@@ -5221,7 +5344,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19">
@@ -5294,7 +5417,7 @@
         <v>349</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19">
@@ -5311,7 +5434,7 @@
         <v>340</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19">
@@ -5370,7 +5493,7 @@
         <v>340</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19">
@@ -5401,7 +5524,7 @@
         <v>340</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19">
@@ -5474,10 +5597,10 @@
         <v>340</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="80">
@@ -5494,7 +5617,7 @@
         <v>349</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="80">
@@ -5511,7 +5634,7 @@
         <v>340</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19">
@@ -5612,7 +5735,7 @@
         <v>340</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>1100</v>
@@ -5632,7 +5755,7 @@
         <v>349</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="48">
@@ -5649,7 +5772,7 @@
         <v>349</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>1101</v>
@@ -5669,10 +5792,10 @@
         <v>340</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
@@ -5747,6 +5870,9 @@
       <c r="D40" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E40" s="18" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="19">
       <c r="A41" s="36">
@@ -5776,8 +5902,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="19">
-      <c r="A43" s="36">
+    <row r="43" spans="1:6" ht="64">
+      <c r="A43" s="40">
         <v>42</v>
       </c>
       <c r="B43" s="14" t="s">
@@ -5788,6 +5914,9 @@
       </c>
       <c r="D43" s="36" t="s">
         <v>349</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19">
@@ -5832,7 +5961,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="19">
+    <row r="47" spans="1:6" ht="64">
       <c r="A47" s="36">
         <v>46</v>
       </c>
@@ -5844,6 +5973,12 @@
       </c>
       <c r="D47" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19">
@@ -5860,8 +5995,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="19">
-      <c r="A49" s="36">
+    <row r="49" spans="1:6" ht="64">
+      <c r="A49" s="39">
         <v>48</v>
       </c>
       <c r="B49" s="14" t="s">
@@ -5873,8 +6008,11 @@
       <c r="D49" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="19">
+      <c r="E49" s="18" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="48">
       <c r="A50" s="36">
         <v>49</v>
       </c>
@@ -5886,6 +6024,9 @@
       </c>
       <c r="D50" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="19">
@@ -5916,7 +6057,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="19">
+    <row r="53" spans="1:6" ht="64">
       <c r="A53" s="36">
         <v>52</v>
       </c>
@@ -5929,8 +6070,11 @@
       <c r="D53" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="19">
+      <c r="F53" s="18" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="64">
       <c r="A54" s="36">
         <v>53</v>
       </c>
@@ -5943,9 +6087,15 @@
       <c r="D54" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="19">
-      <c r="A55" s="36">
+      <c r="E54" s="18" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="32">
+      <c r="A55" s="39">
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
@@ -5957,8 +6107,11 @@
       <c r="D55" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="19">
+      <c r="E55" s="18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="96">
       <c r="A56" s="36">
         <v>55</v>
       </c>
@@ -5970,6 +6123,9 @@
       </c>
       <c r="D56" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="19">
@@ -5985,6 +6141,9 @@
       <c r="D57" s="36" t="s">
         <v>349</v>
       </c>
+      <c r="E57" s="18" t="s">
+        <v>1146</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="19">
       <c r="A58" s="36">
@@ -6079,7 +6238,7 @@
         <v>340</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>1106</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19">
@@ -6096,7 +6255,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="19">
+    <row r="65" spans="1:6" ht="19">
       <c r="A65" s="36">
         <v>64</v>
       </c>
@@ -6109,8 +6268,11 @@
       <c r="D65" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="19">
+      <c r="E65" s="18" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="19">
       <c r="A66" s="36">
         <v>65</v>
       </c>
@@ -6124,10 +6286,10 @@
         <v>349</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="19">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="19">
       <c r="A67" s="36">
         <v>66</v>
       </c>
@@ -6141,7 +6303,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="19">
+    <row r="68" spans="1:6" ht="19">
       <c r="A68" s="36">
         <v>67</v>
       </c>
@@ -6155,7 +6317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="19">
+    <row r="69" spans="1:6" ht="19">
       <c r="A69" s="40">
         <v>68</v>
       </c>
@@ -6169,7 +6331,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="32">
+    <row r="70" spans="1:6" ht="32">
       <c r="A70" s="36">
         <v>69</v>
       </c>
@@ -6183,10 +6345,10 @@
         <v>340</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="48">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="48">
       <c r="A71" s="36">
         <v>70</v>
       </c>
@@ -6200,15 +6362,15 @@
         <v>343</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="19">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="19">
       <c r="A72" s="36">
         <v>71</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C72" s="37">
         <v>0.2</v>
@@ -6217,10 +6379,10 @@
         <v>340</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="19">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="48">
       <c r="A73" s="41">
         <v>72</v>
       </c>
@@ -6233,8 +6395,14 @@
       <c r="D73" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="19">
+      <c r="E73" s="18" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="19">
       <c r="A74" s="36">
         <v>73</v>
       </c>
@@ -6248,10 +6416,10 @@
         <v>340</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="19">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="19">
       <c r="A75" s="36">
         <v>74</v>
       </c>
@@ -6265,10 +6433,10 @@
         <v>340</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="19">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="19">
       <c r="A76" s="36">
         <v>75</v>
       </c>
@@ -6282,10 +6450,10 @@
         <v>340</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="19">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19">
       <c r="A77" s="36">
         <v>76</v>
       </c>
@@ -6299,10 +6467,10 @@
         <v>349</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="19">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19">
       <c r="A78" s="36">
         <v>77</v>
       </c>
@@ -6316,7 +6484,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="19">
+    <row r="79" spans="1:6" ht="19">
       <c r="A79" s="36">
         <v>78</v>
       </c>
@@ -6330,7 +6498,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="19">
+    <row r="80" spans="1:6" ht="19">
       <c r="A80" s="36">
         <v>79</v>
       </c>
@@ -6414,7 +6582,7 @@
         <v>349</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="19">
@@ -6473,7 +6641,7 @@
         <v>343</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="19">
@@ -6588,7 +6756,7 @@
         <v>340</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="19">
@@ -6633,7 +6801,7 @@
         <v>349</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="19">
@@ -18974,6 +19142,9 @@
     <hyperlink ref="F34" r:id="rId892" xr:uid="{3944DC0D-9ABD-5C44-976D-E705EF306262}"/>
     <hyperlink ref="F61" r:id="rId893" xr:uid="{62BE3412-C7FA-204E-969A-045D18008992}"/>
     <hyperlink ref="F35" r:id="rId894" xr:uid="{B6CCB994-78C5-EB44-A94C-25520D424041}"/>
+    <hyperlink ref="F47" r:id="rId895" xr:uid="{5A870501-A7E8-014C-8DF3-AF790BB3A781}"/>
+    <hyperlink ref="F54" r:id="rId896" xr:uid="{C23B5927-5075-5E42-AC94-0D941A5842B2}"/>
+    <hyperlink ref="F73" r:id="rId897" xr:uid="{70F76B08-706C-2C46-A59C-4244EC6D8944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B6F949A3-68F5-854C-A9B5-E2E0AEF73CFB}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E8A4417-4279-2E4C-AF00-5D0193B0576D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">string!$A$1:$E$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2320" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1160">
   <si>
     <t>题号</t>
   </si>
@@ -3514,31 +3515,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>slip window</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>three pointers</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bisearch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.暴力
-2.divide and conquer
-3. stack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.合并后排序 
 2.双指针/ 从前往后
 3. 双指针/ 从后往前</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>数学推导 -》动态规划</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3790,12 +3773,85 @@
     <t>https://leetcode-cn.com/problems/edit-distance/solution/bian-ji-ju-chi-mian-shi-ti-xiang-jie-by-labuladong/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>快速排序的partition过程
+https://leetcode-cn.com/problems/sort-colors/solution/kuai-su-pai-xu-partition-guo-cheng-she-ji-xun-huan/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.three pointers
+(注意开闭区间/循环不变量)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口算法 438, 3题
+https://leetcode-cn.com/problems/minimum-window-substring/solution/hua-dong-chuang-kou-suan-fa-tong-yong-si-xiang-by-/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.层次遍历
+2.回溯
+3.深度优先遍历</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯过程 画图
+https://www.youtube.com/watch?v=VdnvmfzA1pw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.dfs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.暴力
+2.divide and conquer (快排)
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>stack</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.84题的逐层延伸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.颜色标记法
+2.迭代遍历
+3.递归</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代和递归
+https://leetcode-cn.com/problems/binary-tree-inorder-traversal/solution/die-dai-he-di-gui-by-powcai/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数学推导 -》动态规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推导过程
+https://leetcode-cn.com/problems/unique-binary-search-trees/solution/hua-jie-suan-fa-96-bu-tong-de-er-cha-sou-suo-shu-b/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -3878,6 +3934,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3943,7 +4007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4072,6 +4136,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5236,8 +5303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5265,7 +5332,7 @@
         <v>1099</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19">
@@ -5282,7 +5349,7 @@
         <v>340</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19">
@@ -5313,7 +5380,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19">
@@ -5344,7 +5411,7 @@
         <v>340</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19">
@@ -5417,7 +5484,7 @@
         <v>349</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19">
@@ -5434,7 +5501,7 @@
         <v>340</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19">
@@ -5493,7 +5560,7 @@
         <v>340</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="19">
@@ -5524,7 +5591,7 @@
         <v>340</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="19">
@@ -5597,10 +5664,10 @@
         <v>340</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="80">
@@ -5617,7 +5684,7 @@
         <v>349</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="80">
@@ -5634,7 +5701,7 @@
         <v>340</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="19">
@@ -5735,7 +5802,7 @@
         <v>340</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>1100</v>
@@ -5755,7 +5822,7 @@
         <v>349</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="48">
@@ -5772,7 +5839,7 @@
         <v>349</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>1101</v>
@@ -5792,10 +5859,10 @@
         <v>340</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="32">
@@ -5871,7 +5938,7 @@
         <v>340</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="19">
@@ -5916,7 +5983,7 @@
         <v>349</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="19">
@@ -5975,10 +6042,10 @@
         <v>340</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="19">
@@ -6009,7 +6076,7 @@
         <v>340</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="48">
@@ -6026,7 +6093,7 @@
         <v>340</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="19">
@@ -6071,7 +6138,7 @@
         <v>349</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="64">
@@ -6088,10 +6155,10 @@
         <v>340</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="32">
@@ -6108,7 +6175,7 @@
         <v>340</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="96">
@@ -6125,7 +6192,7 @@
         <v>340</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="19">
@@ -6142,7 +6209,7 @@
         <v>349</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="19">
@@ -6238,7 +6305,7 @@
         <v>340</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="19">
@@ -6269,7 +6336,7 @@
         <v>340</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="19">
@@ -6362,7 +6429,7 @@
         <v>343</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="19">
@@ -6396,10 +6463,10 @@
         <v>349</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="19">
@@ -6433,10 +6500,10 @@
         <v>340</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="19">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="64">
       <c r="A76" s="36">
         <v>75</v>
       </c>
@@ -6450,10 +6517,13 @@
         <v>340</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="19">
+        <v>1149</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="64">
       <c r="A77" s="36">
         <v>76</v>
       </c>
@@ -6467,7 +6537,10 @@
         <v>349</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>1111</v>
+        <v>1115</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="19">
@@ -6484,8 +6557,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="19">
-      <c r="A79" s="36">
+    <row r="79" spans="1:6" ht="48">
+      <c r="A79" s="39">
         <v>78</v>
       </c>
       <c r="B79" s="14" t="s">
@@ -6496,6 +6569,12 @@
       </c>
       <c r="D79" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F79" s="43" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="19">
@@ -6511,8 +6590,11 @@
       <c r="D80" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="19">
+      <c r="E80" s="18" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="19">
       <c r="A81" s="36">
         <v>80</v>
       </c>
@@ -6526,7 +6608,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="19">
+    <row r="82" spans="1:6" ht="19">
       <c r="A82" s="36">
         <v>81</v>
       </c>
@@ -6540,7 +6622,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="19">
+    <row r="83" spans="1:6" ht="19">
       <c r="A83" s="36">
         <v>82</v>
       </c>
@@ -6554,7 +6636,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="19">
+    <row r="84" spans="1:6" ht="19">
       <c r="A84" s="36">
         <v>83</v>
       </c>
@@ -6568,7 +6650,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="48">
+    <row r="85" spans="1:6" ht="48">
       <c r="A85" s="40">
         <v>84</v>
       </c>
@@ -6582,11 +6664,11 @@
         <v>349</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="19">
-      <c r="A86" s="40">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="19">
+      <c r="A86" s="41">
         <v>85</v>
       </c>
       <c r="B86" s="14" t="s">
@@ -6598,8 +6680,11 @@
       <c r="D86" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="19">
+      <c r="E86" s="18" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="19">
       <c r="A87" s="36">
         <v>86</v>
       </c>
@@ -6613,7 +6698,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="19">
+    <row r="88" spans="1:6" ht="19">
       <c r="A88" s="36">
         <v>87</v>
       </c>
@@ -6627,7 +6712,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="48">
+    <row r="89" spans="1:6" ht="48">
       <c r="A89" s="36">
         <v>88</v>
       </c>
@@ -6641,10 +6726,10 @@
         <v>343</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="19">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="19">
       <c r="A90" s="36">
         <v>89</v>
       </c>
@@ -6658,7 +6743,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="19">
+    <row r="91" spans="1:6" ht="19">
       <c r="A91" s="36">
         <v>90</v>
       </c>
@@ -6672,7 +6757,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="19">
+    <row r="92" spans="1:6" ht="19">
       <c r="A92" s="36">
         <v>91</v>
       </c>
@@ -6686,7 +6771,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="19">
+    <row r="93" spans="1:6" ht="19">
       <c r="A93" s="36">
         <v>92</v>
       </c>
@@ -6700,7 +6785,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="19">
+    <row r="94" spans="1:6" ht="19">
       <c r="A94" s="36">
         <v>93</v>
       </c>
@@ -6714,7 +6799,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="19">
+    <row r="95" spans="1:6" ht="48">
       <c r="A95" s="36">
         <v>94</v>
       </c>
@@ -6727,8 +6812,14 @@
       <c r="D95" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="19">
+      <c r="E95" s="18" t="s">
+        <v>1156</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="19">
       <c r="A96" s="40">
         <v>95</v>
       </c>
@@ -6742,7 +6833,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="19">
+    <row r="97" spans="1:6" ht="64">
       <c r="A97" s="42">
         <v>96</v>
       </c>
@@ -6756,10 +6847,13 @@
         <v>340</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="19">
+        <v>1158</v>
+      </c>
+      <c r="F97" s="18" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="19">
       <c r="A98" s="40">
         <v>97</v>
       </c>
@@ -6773,7 +6867,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="19">
+    <row r="99" spans="1:6" ht="19">
       <c r="A99" s="36">
         <v>98</v>
       </c>
@@ -6787,7 +6881,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="32">
+    <row r="100" spans="1:6" ht="32">
       <c r="A100" s="36">
         <v>99</v>
       </c>
@@ -6801,10 +6895,10 @@
         <v>349</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="19">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="19">
       <c r="A101" s="36">
         <v>100</v>
       </c>
@@ -6818,7 +6912,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="19">
+    <row r="102" spans="1:6" ht="19">
       <c r="A102" s="36">
         <v>101</v>
       </c>
@@ -6832,7 +6926,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="19">
+    <row r="103" spans="1:6" ht="19">
       <c r="A103" s="36">
         <v>102</v>
       </c>
@@ -6846,7 +6940,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="32">
+    <row r="104" spans="1:6" ht="32">
       <c r="A104" s="36">
         <v>103</v>
       </c>
@@ -6860,7 +6954,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="19">
+    <row r="105" spans="1:6" ht="19">
       <c r="A105" s="36">
         <v>104</v>
       </c>
@@ -6874,7 +6968,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="32">
+    <row r="106" spans="1:6" ht="32">
       <c r="A106" s="36">
         <v>105</v>
       </c>
@@ -6888,7 +6982,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="32">
+    <row r="107" spans="1:6" ht="32">
       <c r="A107" s="36">
         <v>106</v>
       </c>
@@ -6902,7 +6996,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="19">
+    <row r="108" spans="1:6" ht="19">
       <c r="A108" s="36">
         <v>107</v>
       </c>
@@ -6916,7 +7010,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="32">
+    <row r="109" spans="1:6" ht="32">
       <c r="A109" s="36">
         <v>108</v>
       </c>
@@ -6930,7 +7024,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="32">
+    <row r="110" spans="1:6" ht="32">
       <c r="A110" s="36">
         <v>109</v>
       </c>
@@ -6944,7 +7038,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="19">
+    <row r="111" spans="1:6" ht="19">
       <c r="A111" s="36">
         <v>110</v>
       </c>
@@ -6958,7 +7052,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="19">
+    <row r="112" spans="1:6" ht="19">
       <c r="A112" s="36">
         <v>111</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="323" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3E8A4417-4279-2E4C-AF00-5D0193B0576D}"/>
+  <xr:revisionPtr revIDLastSave="361" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{042946B0-FE89-7948-87C5-F666B127F96F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="1174">
   <si>
     <t>题号</t>
   </si>
@@ -3844,6 +3844,93 @@
   <si>
     <t>推导过程
 https://leetcode-cn.com/problems/unique-binary-search-trees/solution/hua-jie-suan-fa-96-bu-tong-de-er-cha-sou-suo-shu-b/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.递归
+2.迭代
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中序遍历</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归
+2.用队列迭代</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs和bfs区别
+https://leetcode-cn.com/problems/binary-tree-level-order-traversal/solution/er-cha-shu-de-ceng-ci-bian-li-by-leetcode/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归
+2.栈迭代dfs
+3.队列迭代bfs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历三种方法
+https://leetcode-cn.com/problems/maximum-depth-of-binary-tree/solution/cde-san-chong-fang-fa-shi-xian-you-zhu-jie-by-zzxh/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6道股票问题汇总
+https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/solution/yi-ge-fang-fa-tuan-mie-6-dao-gu-piao-wen-ti-by-l-3/
+数学思路
+https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock/solution/121-mai-mai-gu-piao-de-zui-jia-shi-ji-dp-7-xing-ji/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.动态规划 - 维持状态
+2.数学 - 求差问题，也可以转换成区间和的问题
+3.常规顺序遍历, 维持minprice和maxprofit值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.异或
+2.hash
+3.set</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.hash set
+2.快慢指针</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学证明
+https://leetcode-cn.com/problems/linked-list-cycle-ii/solution/shuang-zhi-zhen-qing-xi-ti-jie-zhen-zheng-cong-shu/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.hashset
+2.快慢指针</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.哈希表+双向链表 - 查找和增删都为O(1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU策略详解
+https://leetcode-cn.com/problems/lru-cache/solution/lru-ce-lue-xiang-jie-he-shi-xian-by-labuladong/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.归并排序(递归法) 空间复杂度O(lgN)
+2.归并排序(bottom-to-up)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4007,7 +4094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4138,6 +4225,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5303,8 +5393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6815,7 +6905,7 @@
       <c r="E95" s="18" t="s">
         <v>1156</v>
       </c>
-      <c r="F95" s="18" t="s">
+      <c r="F95" s="44" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -6867,7 +6957,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="19">
+    <row r="99" spans="1:6" ht="48">
       <c r="A99" s="36">
         <v>98</v>
       </c>
@@ -6879,6 +6969,9 @@
       </c>
       <c r="D99" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E99" s="18" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="32">
@@ -6926,7 +7019,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="19">
+    <row r="103" spans="1:6" ht="64">
       <c r="A103" s="36">
         <v>102</v>
       </c>
@@ -6938,6 +7031,12 @@
       </c>
       <c r="D103" s="36" t="s">
         <v>343</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="32">
@@ -6953,8 +7052,9 @@
       <c r="D104" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="19">
+      <c r="E104" s="18"/>
+    </row>
+    <row r="105" spans="1:6" ht="64">
       <c r="A105" s="36">
         <v>104</v>
       </c>
@@ -6967,9 +7067,15 @@
       <c r="D105" s="36" t="s">
         <v>343</v>
       </c>
+      <c r="E105" s="18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F105" s="18" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="32">
-      <c r="A106" s="36">
+      <c r="A106" s="40">
         <v>105</v>
       </c>
       <c r="B106" s="14" t="s">
@@ -7066,7 +7172,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="19">
+    <row r="113" spans="1:6" ht="19">
       <c r="A113" s="36">
         <v>112</v>
       </c>
@@ -7080,7 +7186,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="19">
+    <row r="114" spans="1:6" ht="19">
       <c r="A114" s="36">
         <v>113</v>
       </c>
@@ -7094,8 +7200,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="19">
-      <c r="A115" s="36">
+    <row r="115" spans="1:6" ht="19">
+      <c r="A115" s="40">
         <v>114</v>
       </c>
       <c r="B115" s="14" t="s">
@@ -7108,7 +7214,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="19">
+    <row r="116" spans="1:6" ht="19">
       <c r="A116" s="36">
         <v>115</v>
       </c>
@@ -7122,7 +7228,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="32">
+    <row r="117" spans="1:6" ht="32">
       <c r="A117" s="36">
         <v>116</v>
       </c>
@@ -7136,7 +7242,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="32">
+    <row r="118" spans="1:6" ht="32">
       <c r="A118" s="36">
         <v>117</v>
       </c>
@@ -7150,7 +7256,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="19">
+    <row r="119" spans="1:6" ht="19">
       <c r="A119" s="36">
         <v>118</v>
       </c>
@@ -7164,7 +7270,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="19">
+    <row r="120" spans="1:6" ht="19">
       <c r="A120" s="36">
         <v>119</v>
       </c>
@@ -7178,7 +7284,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="19">
+    <row r="121" spans="1:6" ht="19">
       <c r="A121" s="36">
         <v>120</v>
       </c>
@@ -7192,8 +7298,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="19">
-      <c r="A122" s="36">
+    <row r="122" spans="1:6" ht="128">
+      <c r="A122" s="40">
         <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
@@ -7205,8 +7311,14 @@
       <c r="D122" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="19">
+      <c r="E122" s="18" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F122" s="18" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="19">
       <c r="A123" s="36">
         <v>122</v>
       </c>
@@ -7220,7 +7332,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="19">
+    <row r="124" spans="1:6" ht="19">
       <c r="A124" s="36">
         <v>123</v>
       </c>
@@ -7234,7 +7346,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="19">
+    <row r="125" spans="1:6" ht="19">
       <c r="A125" s="36">
         <v>124</v>
       </c>
@@ -7248,7 +7360,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="19">
+    <row r="126" spans="1:6" ht="19">
       <c r="A126" s="36">
         <v>125</v>
       </c>
@@ -7262,7 +7374,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="19">
+    <row r="127" spans="1:6" ht="19">
       <c r="A127" s="36">
         <v>126</v>
       </c>
@@ -7276,7 +7388,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="19">
+    <row r="128" spans="1:6" ht="19">
       <c r="A128" s="36">
         <v>127</v>
       </c>
@@ -7290,7 +7402,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="19">
+    <row r="129" spans="1:6" ht="19">
       <c r="A129" s="36">
         <v>128</v>
       </c>
@@ -7304,7 +7416,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="19">
+    <row r="130" spans="1:6" ht="19">
       <c r="A130" s="36">
         <v>129</v>
       </c>
@@ -7318,7 +7430,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="19">
+    <row r="131" spans="1:6" ht="19">
       <c r="A131" s="36">
         <v>130</v>
       </c>
@@ -7332,7 +7444,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="19">
+    <row r="132" spans="1:6" ht="19">
       <c r="A132" s="36">
         <v>131</v>
       </c>
@@ -7346,7 +7458,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="19">
+    <row r="133" spans="1:6" ht="19">
       <c r="A133" s="36">
         <v>132</v>
       </c>
@@ -7360,7 +7472,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="19">
+    <row r="134" spans="1:6" ht="19">
       <c r="A134" s="36">
         <v>133</v>
       </c>
@@ -7374,7 +7486,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="19">
+    <row r="135" spans="1:6" ht="19">
       <c r="A135" s="36">
         <v>134</v>
       </c>
@@ -7388,7 +7500,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="19">
+    <row r="136" spans="1:6" ht="19">
       <c r="A136" s="36">
         <v>135</v>
       </c>
@@ -7402,7 +7514,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="19">
+    <row r="137" spans="1:6" ht="48">
       <c r="A137" s="36">
         <v>136</v>
       </c>
@@ -7415,8 +7527,11 @@
       <c r="D137" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="19">
+      <c r="E137" s="18" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="19">
       <c r="A138" s="36">
         <v>137</v>
       </c>
@@ -7430,7 +7545,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="19">
+    <row r="139" spans="1:6" ht="19">
       <c r="A139" s="36">
         <v>138</v>
       </c>
@@ -7444,8 +7559,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="19">
-      <c r="A140" s="36">
+    <row r="140" spans="1:6" ht="19">
+      <c r="A140" s="40">
         <v>139</v>
       </c>
       <c r="B140" s="14" t="s">
@@ -7457,8 +7572,11 @@
       <c r="D140" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="19">
+      <c r="E140" s="18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="19">
       <c r="A141" s="36">
         <v>140</v>
       </c>
@@ -7472,7 +7590,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="19">
+    <row r="142" spans="1:6" ht="32">
       <c r="A142" s="36">
         <v>141</v>
       </c>
@@ -7485,8 +7603,11 @@
       <c r="D142" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="19">
+      <c r="E142" s="18" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="64">
       <c r="A143" s="36">
         <v>142</v>
       </c>
@@ -7499,8 +7620,14 @@
       <c r="D143" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="19">
+      <c r="E143" s="18" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="19">
       <c r="A144" s="36">
         <v>143</v>
       </c>
@@ -7514,7 +7641,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="19">
+    <row r="145" spans="1:6" ht="19">
       <c r="A145" s="36">
         <v>144</v>
       </c>
@@ -7528,7 +7655,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="19">
+    <row r="146" spans="1:6" ht="19">
       <c r="A146" s="36">
         <v>145</v>
       </c>
@@ -7542,8 +7669,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="19">
-      <c r="A147" s="36">
+    <row r="147" spans="1:6" ht="48">
+      <c r="A147" s="39">
         <v>146</v>
       </c>
       <c r="B147" s="14" t="s">
@@ -7555,8 +7682,14 @@
       <c r="D147" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="19">
+      <c r="E147" s="18" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F147" s="18" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="19">
       <c r="A148" s="36">
         <v>147</v>
       </c>
@@ -7570,8 +7703,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="19">
-      <c r="A149" s="36">
+    <row r="149" spans="1:6" ht="48">
+      <c r="A149" s="40">
         <v>148</v>
       </c>
       <c r="B149" s="14" t="s">
@@ -7583,8 +7716,11 @@
       <c r="D149" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="19">
+      <c r="E149" s="18" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="19">
       <c r="A150" s="36">
         <v>149</v>
       </c>
@@ -7598,7 +7734,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="19">
+    <row r="151" spans="1:6" ht="19">
       <c r="A151" s="36">
         <v>150</v>
       </c>
@@ -7612,7 +7748,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="19">
+    <row r="152" spans="1:6" ht="19">
       <c r="A152" s="36">
         <v>151</v>
       </c>
@@ -7626,7 +7762,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="19">
+    <row r="153" spans="1:6" ht="19">
       <c r="A153" s="36">
         <v>152</v>
       </c>
@@ -7640,7 +7776,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="19">
+    <row r="154" spans="1:6" ht="19">
       <c r="A154" s="36">
         <v>153</v>
       </c>
@@ -7654,7 +7790,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="19">
+    <row r="155" spans="1:6" ht="19">
       <c r="A155" s="36">
         <v>154</v>
       </c>
@@ -7668,7 +7804,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="19">
+    <row r="156" spans="1:6" ht="19">
       <c r="A156" s="36">
         <v>155</v>
       </c>
@@ -7682,7 +7818,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="19">
+    <row r="157" spans="1:6" ht="19">
       <c r="A157" s="36">
         <v>156</v>
       </c>
@@ -7696,7 +7832,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="19">
+    <row r="158" spans="1:6" ht="19">
       <c r="A158" s="36">
         <v>157</v>
       </c>
@@ -7710,7 +7846,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="32">
+    <row r="159" spans="1:6" ht="32">
       <c r="A159" s="36">
         <v>158</v>
       </c>
@@ -7724,7 +7860,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="32">
+    <row r="160" spans="1:6" ht="32">
       <c r="A160" s="36">
         <v>159</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{042946B0-FE89-7948-87C5-F666B127F96F}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7C1E758-7412-484C-9B60-6C7A9E4B51DD}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="1186">
   <si>
     <t>题号</t>
   </si>
@@ -3931,6 +3931,130 @@
   <si>
     <t>1.归并排序(递归法) 空间复杂度O(lgN)
 2.归并排序(bottom-to-up)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.辅助栈 (同步/非同步)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.dfs
+2.bfs(队列)
+3.并查集</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归
+2.迭代 (双指针)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.入读表bfs
+2.dfs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.排序
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>堆(优先队列)
+3.Hoare快速选择</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.暴力
+2.动态规划
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.优化动态规划</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前 中 后序遍历
+2.层次遍历</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.复制进数组+双指针
+2.双指针
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.递归</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单调队列
+2.双向队列
+3.动态规划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.暴力
+2.减而治之-从左下角往上右走 (m+n)
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二分搜索</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.二分查找
+2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.快慢指针</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5393,8 +5517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7403,7 +7527,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="19">
-      <c r="A129" s="36">
+      <c r="A129" s="40">
         <v>128</v>
       </c>
       <c r="B129" s="14" t="s">
@@ -7775,6 +7899,9 @@
       <c r="D153" s="36" t="s">
         <v>340</v>
       </c>
+      <c r="E153" s="18" t="s">
+        <v>1144</v>
+      </c>
     </row>
     <row r="154" spans="1:6" ht="19">
       <c r="A154" s="36">
@@ -7817,6 +7944,9 @@
       <c r="D156" s="36" t="s">
         <v>343</v>
       </c>
+      <c r="E156" s="18" t="s">
+        <v>1174</v>
+      </c>
     </row>
     <row r="157" spans="1:6" ht="19">
       <c r="A157" s="36">
@@ -8322,7 +8452,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="19">
+    <row r="193" spans="1:5" ht="19">
       <c r="A193" s="36">
         <v>192</v>
       </c>
@@ -8336,7 +8466,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="19">
+    <row r="194" spans="1:5" ht="19">
       <c r="A194" s="36">
         <v>193</v>
       </c>
@@ -8350,7 +8480,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="19">
+    <row r="195" spans="1:5" ht="19">
       <c r="A195" s="36">
         <v>194</v>
       </c>
@@ -8364,7 +8494,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="19">
+    <row r="196" spans="1:5" ht="19">
       <c r="A196" s="36">
         <v>195</v>
       </c>
@@ -8378,7 +8508,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="19">
+    <row r="197" spans="1:5" ht="19">
       <c r="A197" s="36">
         <v>196</v>
       </c>
@@ -8392,7 +8522,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="19">
+    <row r="198" spans="1:5" ht="19">
       <c r="A198" s="36">
         <v>197</v>
       </c>
@@ -8406,7 +8536,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="19">
+    <row r="199" spans="1:5" ht="19">
       <c r="A199" s="36">
         <v>198</v>
       </c>
@@ -8420,7 +8550,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="19">
+    <row r="200" spans="1:5" ht="19">
       <c r="A200" s="36">
         <v>199</v>
       </c>
@@ -8434,7 +8564,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="19">
+    <row r="201" spans="1:5" ht="48">
       <c r="A201" s="36">
         <v>200</v>
       </c>
@@ -8447,8 +8577,11 @@
       <c r="D201" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="19">
+      <c r="E201" s="18" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="19">
       <c r="A202" s="36">
         <v>201</v>
       </c>
@@ -8462,7 +8595,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="19">
+    <row r="203" spans="1:5" ht="19">
       <c r="A203" s="36">
         <v>202</v>
       </c>
@@ -8476,7 +8609,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="19">
+    <row r="204" spans="1:5" ht="19">
       <c r="A204" s="36">
         <v>203</v>
       </c>
@@ -8490,7 +8623,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="19">
+    <row r="205" spans="1:5" ht="19">
       <c r="A205" s="36">
         <v>204</v>
       </c>
@@ -8504,7 +8637,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="19">
+    <row r="206" spans="1:5" ht="19">
       <c r="A206" s="36">
         <v>205</v>
       </c>
@@ -8518,7 +8651,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="19">
+    <row r="207" spans="1:5" ht="32">
       <c r="A207" s="36">
         <v>206</v>
       </c>
@@ -8531,8 +8664,11 @@
       <c r="D207" s="36" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="19">
+      <c r="E207" s="18" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="32">
       <c r="A208" s="36">
         <v>207</v>
       </c>
@@ -8545,9 +8681,12 @@
       <c r="D208" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="19">
-      <c r="A209" s="36">
+      <c r="E208" s="18" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="19">
+      <c r="A209" s="39">
         <v>208</v>
       </c>
       <c r="B209" s="14" t="s">
@@ -8560,7 +8699,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="19">
+    <row r="210" spans="1:5" ht="19">
       <c r="A210" s="36">
         <v>209</v>
       </c>
@@ -8574,7 +8713,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="19">
+    <row r="211" spans="1:5" ht="19">
       <c r="A211" s="36">
         <v>210</v>
       </c>
@@ -8588,7 +8727,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="32">
+    <row r="212" spans="1:5" ht="32">
       <c r="A212" s="36">
         <v>211</v>
       </c>
@@ -8602,7 +8741,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="19">
+    <row r="213" spans="1:5" ht="19">
       <c r="A213" s="36">
         <v>212</v>
       </c>
@@ -8616,7 +8755,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="19">
+    <row r="214" spans="1:5" ht="19">
       <c r="A214" s="36">
         <v>213</v>
       </c>
@@ -8630,7 +8769,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="19">
+    <row r="215" spans="1:5" ht="19">
       <c r="A215" s="36">
         <v>214</v>
       </c>
@@ -8644,8 +8783,8 @@
         <v>349</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="19">
-      <c r="A216" s="36">
+    <row r="216" spans="1:5" ht="48">
+      <c r="A216" s="39">
         <v>215</v>
       </c>
       <c r="B216" s="14" t="s">
@@ -8657,8 +8796,11 @@
       <c r="D216" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="19">
+      <c r="E216" s="18" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="19">
       <c r="A217" s="36">
         <v>216</v>
       </c>
@@ -8672,7 +8814,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="19">
+    <row r="218" spans="1:5" ht="19">
       <c r="A218" s="36">
         <v>217</v>
       </c>
@@ -8686,7 +8828,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="19">
+    <row r="219" spans="1:5" ht="19">
       <c r="A219" s="36">
         <v>218</v>
       </c>
@@ -8700,7 +8842,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="19">
+    <row r="220" spans="1:5" ht="19">
       <c r="A220" s="36">
         <v>219</v>
       </c>
@@ -8714,7 +8856,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="19">
+    <row r="221" spans="1:5" ht="19">
       <c r="A221" s="36">
         <v>220</v>
       </c>
@@ -8728,7 +8870,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="19">
+    <row r="222" spans="1:5" ht="48">
       <c r="A222" s="36">
         <v>221</v>
       </c>
@@ -8741,8 +8883,11 @@
       <c r="D222" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="19">
+      <c r="E222" s="18" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="19">
       <c r="A223" s="36">
         <v>222</v>
       </c>
@@ -8756,7 +8901,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="19">
+    <row r="224" spans="1:5" ht="19">
       <c r="A224" s="36">
         <v>223</v>
       </c>
@@ -8770,7 +8915,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="19">
+    <row r="225" spans="1:5" ht="19">
       <c r="A225" s="36">
         <v>224</v>
       </c>
@@ -8784,7 +8929,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="19">
+    <row r="226" spans="1:5" ht="19">
       <c r="A226" s="36">
         <v>225</v>
       </c>
@@ -8798,7 +8943,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="19">
+    <row r="227" spans="1:5" ht="32">
       <c r="A227" s="36">
         <v>226</v>
       </c>
@@ -8811,8 +8956,11 @@
       <c r="D227" s="36" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="19">
+      <c r="E227" s="18" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="19">
       <c r="A228" s="36">
         <v>227</v>
       </c>
@@ -8826,7 +8974,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="19">
+    <row r="229" spans="1:5" ht="19">
       <c r="A229" s="36">
         <v>228</v>
       </c>
@@ -8840,7 +8988,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="19">
+    <row r="230" spans="1:5" ht="19">
       <c r="A230" s="36">
         <v>229</v>
       </c>
@@ -8854,7 +9002,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="19">
+    <row r="231" spans="1:5" ht="19">
       <c r="A231" s="36">
         <v>230</v>
       </c>
@@ -8868,7 +9016,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="19">
+    <row r="232" spans="1:5" ht="19">
       <c r="A232" s="36">
         <v>231</v>
       </c>
@@ -8882,7 +9030,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="19">
+    <row r="233" spans="1:5" ht="19">
       <c r="A233" s="36">
         <v>232</v>
       </c>
@@ -8896,7 +9044,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="19">
+    <row r="234" spans="1:5" ht="19">
       <c r="A234" s="36">
         <v>233</v>
       </c>
@@ -8910,7 +9058,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="19">
+    <row r="235" spans="1:5" ht="48">
       <c r="A235" s="36">
         <v>234</v>
       </c>
@@ -8923,8 +9071,11 @@
       <c r="D235" s="36" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="32">
+      <c r="E235" s="18" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="32">
       <c r="A236" s="36">
         <v>235</v>
       </c>
@@ -8938,8 +9089,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="19">
-      <c r="A237" s="36">
+    <row r="237" spans="1:5" ht="19">
+      <c r="A237" s="40">
         <v>236</v>
       </c>
       <c r="B237" s="14" t="s">
@@ -8951,8 +9102,11 @@
       <c r="D237" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="19">
+      <c r="E237" s="18" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="19">
       <c r="A238" s="36">
         <v>237</v>
       </c>
@@ -8966,8 +9120,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="19">
-      <c r="A239" s="36">
+    <row r="239" spans="1:5" ht="19">
+      <c r="A239" s="40">
         <v>238</v>
       </c>
       <c r="B239" s="14" t="s">
@@ -8980,8 +9134,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="19">
-      <c r="A240" s="36">
+    <row r="240" spans="1:5" ht="48">
+      <c r="A240" s="40">
         <v>239</v>
       </c>
       <c r="B240" s="14" t="s">
@@ -8993,8 +9147,11 @@
       <c r="D240" s="36" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="19">
+      <c r="E240" s="18" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="64">
       <c r="A241" s="36">
         <v>240</v>
       </c>
@@ -9007,8 +9164,11 @@
       <c r="D241" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="19">
+      <c r="E241" s="18" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="19">
       <c r="A242" s="36">
         <v>241</v>
       </c>
@@ -9022,7 +9182,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="19">
+    <row r="243" spans="1:5" ht="19">
       <c r="A243" s="36">
         <v>242</v>
       </c>
@@ -9036,7 +9196,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="19">
+    <row r="244" spans="1:5" ht="19">
       <c r="A244" s="36">
         <v>243</v>
       </c>
@@ -9050,7 +9210,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="19">
+    <row r="245" spans="1:5" ht="19">
       <c r="A245" s="36">
         <v>244</v>
       </c>
@@ -9064,7 +9224,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="19">
+    <row r="246" spans="1:5" ht="19">
       <c r="A246" s="36">
         <v>245</v>
       </c>
@@ -9078,7 +9238,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="19">
+    <row r="247" spans="1:5" ht="19">
       <c r="A247" s="36">
         <v>246</v>
       </c>
@@ -9092,7 +9252,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="19">
+    <row r="248" spans="1:5" ht="19">
       <c r="A248" s="36">
         <v>247</v>
       </c>
@@ -9106,7 +9266,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="19">
+    <row r="249" spans="1:5" ht="19">
       <c r="A249" s="36">
         <v>248</v>
       </c>
@@ -9120,7 +9280,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="19">
+    <row r="250" spans="1:5" ht="19">
       <c r="A250" s="36">
         <v>249</v>
       </c>
@@ -9134,7 +9294,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="19">
+    <row r="251" spans="1:5" ht="19">
       <c r="A251" s="36">
         <v>250</v>
       </c>
@@ -9148,7 +9308,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="19">
+    <row r="252" spans="1:5" ht="19">
       <c r="A252" s="36">
         <v>251</v>
       </c>
@@ -9162,7 +9322,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="19">
+    <row r="253" spans="1:5" ht="19">
       <c r="A253" s="36">
         <v>252</v>
       </c>
@@ -9176,7 +9336,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="19">
+    <row r="254" spans="1:5" ht="19">
       <c r="A254" s="36">
         <v>253</v>
       </c>
@@ -9190,7 +9350,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="19">
+    <row r="255" spans="1:5" ht="19">
       <c r="A255" s="36">
         <v>254</v>
       </c>
@@ -9204,7 +9364,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="32">
+    <row r="256" spans="1:5" ht="32">
       <c r="A256" s="36">
         <v>255</v>
       </c>
@@ -9442,7 +9602,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="19">
+    <row r="273" spans="1:5" ht="19">
       <c r="A273" s="36">
         <v>272</v>
       </c>
@@ -9456,7 +9616,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="19">
+    <row r="274" spans="1:5" ht="19">
       <c r="A274" s="36">
         <v>273</v>
       </c>
@@ -9470,7 +9630,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="19">
+    <row r="275" spans="1:5" ht="19">
       <c r="A275" s="36">
         <v>274</v>
       </c>
@@ -9484,7 +9644,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="19">
+    <row r="276" spans="1:5" ht="19">
       <c r="A276" s="36">
         <v>275</v>
       </c>
@@ -9498,7 +9658,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="19">
+    <row r="277" spans="1:5" ht="19">
       <c r="A277" s="36">
         <v>276</v>
       </c>
@@ -9512,7 +9672,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="19">
+    <row r="278" spans="1:5" ht="19">
       <c r="A278" s="36">
         <v>277</v>
       </c>
@@ -9526,7 +9686,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="19">
+    <row r="279" spans="1:5" ht="19">
       <c r="A279" s="36">
         <v>278</v>
       </c>
@@ -9540,8 +9700,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="19">
-      <c r="A280" s="36">
+    <row r="280" spans="1:5" ht="48">
+      <c r="A280" s="40">
         <v>279</v>
       </c>
       <c r="B280" s="14" t="s">
@@ -9553,8 +9713,11 @@
       <c r="D280" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="19">
+      <c r="E280" s="18" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="19">
       <c r="A281" s="36">
         <v>280</v>
       </c>
@@ -9568,7 +9731,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="19">
+    <row r="282" spans="1:5" ht="19">
       <c r="A282" s="36">
         <v>281</v>
       </c>
@@ -9582,7 +9745,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="19">
+    <row r="283" spans="1:5" ht="19">
       <c r="A283" s="36">
         <v>282</v>
       </c>
@@ -9596,7 +9759,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="19">
+    <row r="284" spans="1:5" ht="19">
       <c r="A284" s="36">
         <v>283</v>
       </c>
@@ -9610,7 +9773,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="19">
+    <row r="285" spans="1:5" ht="19">
       <c r="A285" s="36">
         <v>284</v>
       </c>
@@ -9624,7 +9787,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="19">
+    <row r="286" spans="1:5" ht="19">
       <c r="A286" s="36">
         <v>285</v>
       </c>
@@ -9638,7 +9801,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="19">
+    <row r="287" spans="1:5" ht="19">
       <c r="A287" s="36">
         <v>286</v>
       </c>
@@ -9652,7 +9815,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="19">
+    <row r="288" spans="1:5" ht="32">
       <c r="A288" s="36">
         <v>287</v>
       </c>
@@ -9664,6 +9827,9 @@
       </c>
       <c r="D288" s="36" t="s">
         <v>349</v>
+      </c>
+      <c r="E288" s="18" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="19">
@@ -9793,7 +9959,7 @@
       </c>
     </row>
     <row r="298" spans="1:4" ht="19">
-      <c r="A298" s="36">
+      <c r="A298" s="40">
         <v>297</v>
       </c>
       <c r="B298" s="14" t="s">
@@ -9835,7 +10001,7 @@
       </c>
     </row>
     <row r="301" spans="1:4" ht="19">
-      <c r="A301" s="36">
+      <c r="A301" s="39">
         <v>300</v>
       </c>
       <c r="B301" s="14" t="s">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7C1E758-7412-484C-9B60-6C7A9E4B51DD}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F231BE7-9491-8443-894F-FF3C81FBC70E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="1195">
   <si>
     <t>题号</t>
   </si>
@@ -4055,6 +4055,50 @@
       </rPr>
       <t>.快慢指针</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯 分治 dp
+https://leetcode-cn.com/problems/burst-balloons/solution/chao-xiang-xi-hui-su-dao-fen-zhi-dao-dp-by-niu-you/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.递归
+2.动态规划
+3.背包问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种方法
+https://leetcode-cn.com/problems/house-robber-iii/solution/san-chong-fang-fa-jie-jue-shu-xing-dong-tai-gui-hu/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数学- 分成奇数偶数找规律</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.排序
+2.最小堆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hashmap和heap, 最小队列 区别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.辅助栈法
+2.递归</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.并查集
+2.dfs bfs
+3.Floyd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/evaluate-division/solution/ji-lu-san-chong-fang-fa-by-frank588/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4218,7 +4262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4349,6 +4393,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5517,8 +5564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="A301" sqref="A301"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="G401" sqref="G401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7029,7 +7076,7 @@
       <c r="E95" s="18" t="s">
         <v>1156</v>
       </c>
-      <c r="F95" s="44" t="s">
+      <c r="F95" s="45" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -10015,7 +10062,7 @@
       </c>
     </row>
     <row r="302" spans="1:4" ht="19">
-      <c r="A302" s="36">
+      <c r="A302" s="40">
         <v>301</v>
       </c>
       <c r="B302" s="14" t="s">
@@ -10056,7 +10103,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="19">
+    <row r="305" spans="1:6" ht="19">
       <c r="A305" s="36">
         <v>304</v>
       </c>
@@ -10070,7 +10117,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="19">
+    <row r="306" spans="1:6" ht="19">
       <c r="A306" s="36">
         <v>305</v>
       </c>
@@ -10084,7 +10131,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="19">
+    <row r="307" spans="1:6" ht="19">
       <c r="A307" s="36">
         <v>306</v>
       </c>
@@ -10098,7 +10145,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="19">
+    <row r="308" spans="1:6" ht="19">
       <c r="A308" s="36">
         <v>307</v>
       </c>
@@ -10112,7 +10159,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="19">
+    <row r="309" spans="1:6" ht="19">
       <c r="A309" s="36">
         <v>308</v>
       </c>
@@ -10126,7 +10173,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="32">
+    <row r="310" spans="1:6" ht="32">
       <c r="A310" s="36">
         <v>309</v>
       </c>
@@ -10139,8 +10186,11 @@
       <c r="D310" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="19">
+      <c r="E310" s="18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="19">
       <c r="A311" s="36">
         <v>310</v>
       </c>
@@ -10154,7 +10204,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="19">
+    <row r="312" spans="1:6" ht="19">
       <c r="A312" s="36">
         <v>311</v>
       </c>
@@ -10168,8 +10218,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="19">
-      <c r="A313" s="36">
+    <row r="313" spans="1:6" ht="64">
+      <c r="A313" s="40">
         <v>312</v>
       </c>
       <c r="B313" s="14" t="s">
@@ -10181,8 +10231,11 @@
       <c r="D313" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" ht="19">
+      <c r="F313" s="18" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="19">
       <c r="A314" s="36">
         <v>313</v>
       </c>
@@ -10196,7 +10249,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="19">
+    <row r="315" spans="1:6" ht="19">
       <c r="A315" s="36">
         <v>314</v>
       </c>
@@ -10210,7 +10263,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="19">
+    <row r="316" spans="1:6" ht="19">
       <c r="A316" s="36">
         <v>315</v>
       </c>
@@ -10224,7 +10277,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="19">
+    <row r="317" spans="1:6" ht="19">
       <c r="A317" s="36">
         <v>316</v>
       </c>
@@ -10238,7 +10291,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="19">
+    <row r="318" spans="1:6" ht="19">
       <c r="A318" s="36">
         <v>317</v>
       </c>
@@ -10252,7 +10305,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="19">
+    <row r="319" spans="1:6" ht="19">
       <c r="A319" s="36">
         <v>318</v>
       </c>
@@ -10266,7 +10319,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="19">
+    <row r="320" spans="1:6" ht="19">
       <c r="A320" s="36">
         <v>319</v>
       </c>
@@ -10280,7 +10333,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="19">
+    <row r="321" spans="1:5" ht="19">
       <c r="A321" s="36">
         <v>320</v>
       </c>
@@ -10294,7 +10347,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="19">
+    <row r="322" spans="1:5" ht="19">
       <c r="A322" s="36">
         <v>321</v>
       </c>
@@ -10308,7 +10361,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="19">
+    <row r="323" spans="1:5" ht="48">
       <c r="A323" s="36">
         <v>322</v>
       </c>
@@ -10321,8 +10374,11 @@
       <c r="D323" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" ht="32">
+      <c r="E323" s="18" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="32">
       <c r="A324" s="36">
         <v>323</v>
       </c>
@@ -10336,7 +10392,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="19">
+    <row r="325" spans="1:5" ht="19">
       <c r="A325" s="36">
         <v>324</v>
       </c>
@@ -10350,7 +10406,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="19">
+    <row r="326" spans="1:5" ht="19">
       <c r="A326" s="36">
         <v>325</v>
       </c>
@@ -10364,7 +10420,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="19">
+    <row r="327" spans="1:5" ht="19">
       <c r="A327" s="36">
         <v>326</v>
       </c>
@@ -10378,7 +10434,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="19">
+    <row r="328" spans="1:5" ht="19">
       <c r="A328" s="36">
         <v>327</v>
       </c>
@@ -10392,7 +10448,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="19">
+    <row r="329" spans="1:5" ht="19">
       <c r="A329" s="36">
         <v>328</v>
       </c>
@@ -10406,7 +10462,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="19">
+    <row r="330" spans="1:5" ht="19">
       <c r="A330" s="36">
         <v>329</v>
       </c>
@@ -10420,7 +10476,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="19">
+    <row r="331" spans="1:5" ht="19">
       <c r="A331" s="36">
         <v>330</v>
       </c>
@@ -10434,7 +10490,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="32">
+    <row r="332" spans="1:5" ht="32">
       <c r="A332" s="36">
         <v>331</v>
       </c>
@@ -10448,7 +10504,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="19">
+    <row r="333" spans="1:5" ht="19">
       <c r="A333" s="36">
         <v>332</v>
       </c>
@@ -10462,7 +10518,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="19">
+    <row r="334" spans="1:5" ht="19">
       <c r="A334" s="36">
         <v>333</v>
       </c>
@@ -10476,7 +10532,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="19">
+    <row r="335" spans="1:5" ht="19">
       <c r="A335" s="36">
         <v>334</v>
       </c>
@@ -10490,7 +10546,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="19">
+    <row r="336" spans="1:5" ht="19">
       <c r="A336" s="36">
         <v>335</v>
       </c>
@@ -10504,7 +10560,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="19">
+    <row r="337" spans="1:6" ht="19">
       <c r="A337" s="36">
         <v>336</v>
       </c>
@@ -10518,7 +10574,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="19">
+    <row r="338" spans="1:6" ht="64">
       <c r="A338" s="36">
         <v>337</v>
       </c>
@@ -10531,8 +10587,14 @@
       <c r="D338" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" ht="19">
+      <c r="E338" s="18" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F338" s="18" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="19">
       <c r="A339" s="36">
         <v>338</v>
       </c>
@@ -10545,8 +10607,11 @@
       <c r="D339" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" ht="19">
+      <c r="E339" s="18" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="19">
       <c r="A340" s="36">
         <v>339</v>
       </c>
@@ -10560,7 +10625,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="32">
+    <row r="341" spans="1:6" ht="32">
       <c r="A341" s="36">
         <v>340</v>
       </c>
@@ -10574,7 +10639,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="19">
+    <row r="342" spans="1:6" ht="19">
       <c r="A342" s="36">
         <v>341</v>
       </c>
@@ -10588,7 +10653,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="19">
+    <row r="343" spans="1:6" ht="19">
       <c r="A343" s="36">
         <v>342</v>
       </c>
@@ -10602,7 +10667,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="19">
+    <row r="344" spans="1:6" ht="19">
       <c r="A344" s="36">
         <v>343</v>
       </c>
@@ -10616,7 +10681,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="19">
+    <row r="345" spans="1:6" ht="19">
       <c r="A345" s="36">
         <v>344</v>
       </c>
@@ -10630,7 +10695,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="19">
+    <row r="346" spans="1:6" ht="19">
       <c r="A346" s="36">
         <v>345</v>
       </c>
@@ -10644,7 +10709,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="19">
+    <row r="347" spans="1:6" ht="19">
       <c r="A347" s="36">
         <v>346</v>
       </c>
@@ -10658,7 +10723,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="19">
+    <row r="348" spans="1:6" ht="32">
       <c r="A348" s="36">
         <v>347</v>
       </c>
@@ -10671,8 +10736,14 @@
       <c r="D348" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="19">
+      <c r="E348" s="18" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F348" s="18" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="19">
       <c r="A349" s="36">
         <v>348</v>
       </c>
@@ -10686,7 +10757,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="19">
+    <row r="350" spans="1:6" ht="19">
       <c r="A350" s="36">
         <v>349</v>
       </c>
@@ -10700,7 +10771,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="19">
+    <row r="351" spans="1:6" ht="19">
       <c r="A351" s="36">
         <v>350</v>
       </c>
@@ -10714,7 +10785,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="19">
+    <row r="352" spans="1:6" ht="19">
       <c r="A352" s="36">
         <v>351</v>
       </c>
@@ -11176,7 +11247,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="19">
+    <row r="385" spans="1:6" ht="19">
       <c r="A385" s="36">
         <v>384</v>
       </c>
@@ -11190,7 +11261,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="19">
+    <row r="386" spans="1:6" ht="19">
       <c r="A386" s="36">
         <v>385</v>
       </c>
@@ -11204,7 +11275,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="19">
+    <row r="387" spans="1:6" ht="19">
       <c r="A387" s="36">
         <v>386</v>
       </c>
@@ -11218,7 +11289,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="19">
+    <row r="388" spans="1:6" ht="19">
       <c r="A388" s="36">
         <v>387</v>
       </c>
@@ -11232,7 +11303,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="19">
+    <row r="389" spans="1:6" ht="19">
       <c r="A389" s="36">
         <v>388</v>
       </c>
@@ -11246,7 +11317,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="19">
+    <row r="390" spans="1:6" ht="19">
       <c r="A390" s="36">
         <v>389</v>
       </c>
@@ -11260,7 +11331,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="19">
+    <row r="391" spans="1:6" ht="19">
       <c r="A391" s="36">
         <v>390</v>
       </c>
@@ -11274,7 +11345,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="19">
+    <row r="392" spans="1:6" ht="19">
       <c r="A392" s="36">
         <v>391</v>
       </c>
@@ -11288,7 +11359,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="19">
+    <row r="393" spans="1:6" ht="19">
       <c r="A393" s="36">
         <v>392</v>
       </c>
@@ -11302,7 +11373,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="19">
+    <row r="394" spans="1:6" ht="19">
       <c r="A394" s="36">
         <v>393</v>
       </c>
@@ -11316,7 +11387,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="19">
+    <row r="395" spans="1:6" ht="32">
       <c r="A395" s="36">
         <v>394</v>
       </c>
@@ -11329,8 +11400,11 @@
       <c r="D395" s="36" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" ht="32">
+      <c r="E395" s="18" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="32">
       <c r="A396" s="36">
         <v>395</v>
       </c>
@@ -11344,7 +11418,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="19">
+    <row r="397" spans="1:6" ht="19">
       <c r="A397" s="36">
         <v>396</v>
       </c>
@@ -11358,7 +11432,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="19">
+    <row r="398" spans="1:6" ht="19">
       <c r="A398" s="36">
         <v>397</v>
       </c>
@@ -11372,7 +11446,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="19">
+    <row r="399" spans="1:6" ht="19">
       <c r="A399" s="36">
         <v>398</v>
       </c>
@@ -11386,8 +11460,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="19">
-      <c r="A400" s="36">
+    <row r="400" spans="1:6" ht="48">
+      <c r="A400" s="40">
         <v>399</v>
       </c>
       <c r="B400" s="14" t="s">
@@ -11398,6 +11472,12 @@
       </c>
       <c r="D400" s="36" t="s">
         <v>340</v>
+      </c>
+      <c r="E400" s="44" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F400" s="28" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="19">
@@ -19541,6 +19621,7 @@
     <hyperlink ref="F47" r:id="rId895" xr:uid="{5A870501-A7E8-014C-8DF3-AF790BB3A781}"/>
     <hyperlink ref="F54" r:id="rId896" xr:uid="{C23B5927-5075-5E42-AC94-0D941A5842B2}"/>
     <hyperlink ref="F73" r:id="rId897" xr:uid="{70F76B08-706C-2C46-A59C-4244EC6D8944}"/>
+    <hyperlink ref="F400" r:id="rId898" xr:uid="{8642E855-BCDF-5D47-A3B5-E13311366DDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F231BE7-9491-8443-894F-FF3C81FBC70E}"/>
+  <xr:revisionPtr revIDLastSave="411" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{791F50BA-4218-184D-8036-8D6634CE1395}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="1195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1197">
   <si>
     <t>题号</t>
   </si>
@@ -4099,6 +4099,28 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/evaluate-division/solution/ji-lu-san-chong-fang-fa-by-frank588/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.双重递归
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2.hash?</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析
+https://leetcode-cn.com/problems/diameter-of-binary-tree/solution/hot-100-9er-cha-shu-de-zhi-jing-python3-di-gui-ye-/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5564,8 +5586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="G401" sqref="G401"/>
+    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
+      <selection activeCell="F543" sqref="F543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11928,7 +11950,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="19">
+    <row r="433" spans="1:5" ht="19">
       <c r="A433" s="36">
         <v>432</v>
       </c>
@@ -11942,7 +11964,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="19">
+    <row r="434" spans="1:5" ht="19">
       <c r="A434" s="36">
         <v>433</v>
       </c>
@@ -11956,7 +11978,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="19">
+    <row r="435" spans="1:5" ht="19">
       <c r="A435" s="36">
         <v>434</v>
       </c>
@@ -11970,7 +11992,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="19">
+    <row r="436" spans="1:5" ht="19">
       <c r="A436" s="36">
         <v>435</v>
       </c>
@@ -11984,7 +12006,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="19">
+    <row r="437" spans="1:5" ht="19">
       <c r="A437" s="36">
         <v>436</v>
       </c>
@@ -11998,7 +12020,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="19">
+    <row r="438" spans="1:5" ht="32">
       <c r="A438" s="36">
         <v>437</v>
       </c>
@@ -12011,8 +12033,11 @@
       <c r="D438" s="36" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" ht="19">
+      <c r="E438" s="18" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="19">
       <c r="A439" s="36">
         <v>438</v>
       </c>
@@ -12026,7 +12051,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="19">
+    <row r="440" spans="1:5" ht="19">
       <c r="A440" s="36">
         <v>439</v>
       </c>
@@ -12040,7 +12065,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="32">
+    <row r="441" spans="1:5" ht="32">
       <c r="A441" s="36">
         <v>440</v>
       </c>
@@ -12054,7 +12079,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="19">
+    <row r="442" spans="1:5" ht="19">
       <c r="A442" s="36">
         <v>441</v>
       </c>
@@ -12068,7 +12093,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="19">
+    <row r="443" spans="1:5" ht="19">
       <c r="A443" s="36">
         <v>442</v>
       </c>
@@ -12082,7 +12107,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="19">
+    <row r="444" spans="1:5" ht="19">
       <c r="A444" s="36">
         <v>443</v>
       </c>
@@ -12096,7 +12121,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="19">
+    <row r="445" spans="1:5" ht="19">
       <c r="A445" s="36">
         <v>444</v>
       </c>
@@ -12110,7 +12135,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="19">
+    <row r="446" spans="1:5" ht="19">
       <c r="A446" s="36">
         <v>445</v>
       </c>
@@ -12124,7 +12149,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="19">
+    <row r="447" spans="1:5" ht="19">
       <c r="A447" s="36">
         <v>446</v>
       </c>
@@ -12138,7 +12163,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="19">
+    <row r="448" spans="1:5" ht="19">
       <c r="A448" s="36">
         <v>447</v>
       </c>
@@ -13272,7 +13297,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="19">
+    <row r="529" spans="1:6" ht="19">
       <c r="A529" s="36">
         <v>530</v>
       </c>
@@ -13286,7 +13311,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="19">
+    <row r="530" spans="1:6" ht="19">
       <c r="A530" s="36">
         <v>531</v>
       </c>
@@ -13300,7 +13325,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="19">
+    <row r="531" spans="1:6" ht="19">
       <c r="A531" s="36">
         <v>532</v>
       </c>
@@ -13314,7 +13339,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="19">
+    <row r="532" spans="1:6" ht="19">
       <c r="A532" s="36">
         <v>533</v>
       </c>
@@ -13328,7 +13353,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="19">
+    <row r="533" spans="1:6" ht="19">
       <c r="A533" s="36">
         <v>534</v>
       </c>
@@ -13342,7 +13367,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="19">
+    <row r="534" spans="1:6" ht="19">
       <c r="A534" s="36">
         <v>535</v>
       </c>
@@ -13356,7 +13381,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="19">
+    <row r="535" spans="1:6" ht="19">
       <c r="A535" s="36">
         <v>536</v>
       </c>
@@ -13370,7 +13395,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="19">
+    <row r="536" spans="1:6" ht="19">
       <c r="A536" s="36">
         <v>537</v>
       </c>
@@ -13384,7 +13409,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="19">
+    <row r="537" spans="1:6" ht="19">
       <c r="A537" s="36">
         <v>538</v>
       </c>
@@ -13398,7 +13423,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="19">
+    <row r="538" spans="1:6" ht="19">
       <c r="A538" s="36">
         <v>539</v>
       </c>
@@ -13412,7 +13437,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="19">
+    <row r="539" spans="1:6" ht="19">
       <c r="A539" s="36">
         <v>540</v>
       </c>
@@ -13426,7 +13451,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="19">
+    <row r="540" spans="1:6" ht="19">
       <c r="A540" s="36">
         <v>541</v>
       </c>
@@ -13440,7 +13465,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="19">
+    <row r="541" spans="1:6" ht="19">
       <c r="A541" s="36">
         <v>542</v>
       </c>
@@ -13454,7 +13479,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="19">
+    <row r="542" spans="1:6" ht="64">
       <c r="A542" s="36">
         <v>543</v>
       </c>
@@ -13467,8 +13492,11 @@
       <c r="D542" s="36" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" ht="19">
+      <c r="F542" s="18" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" ht="19">
       <c r="A543" s="36">
         <v>544</v>
       </c>
@@ -13482,7 +13510,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="19">
+    <row r="544" spans="1:6" ht="19">
       <c r="A544" s="36">
         <v>545</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6efd650fab0c0f2/6.00/3.Algorithms/leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="411" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{791F50BA-4218-184D-8036-8D6634CE1395}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE4C442C-AA7B-EC45-933D-23E60240F8EA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">string!$A$1:$E$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="1199">
   <si>
     <t>题号</t>
   </si>
@@ -4121,6 +4120,16 @@
   <si>
     <t>解析
 https://leetcode-cn.com/problems/diameter-of-binary-tree/solution/hot-100-9er-cha-shu-de-zhi-jing-python3-di-gui-ye-/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解法
+https://leetcode-cn.com/problems/median-of-two-sorted-arrays/solution/xiang-xi-tong-su-de-si-lu-fen-xi-duo-jie-fa-by-w-2/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.滑动窗口 set
+2.优化滑动窗口 map</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5586,8 +5595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
-      <selection activeCell="F543" sqref="F543"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5601,7 +5610,7 @@
     <col min="7" max="16384" width="10.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="18" t="s">
         <v>1096</v>
       </c>
@@ -5618,7 +5627,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19">
+    <row r="2" spans="1:6" ht="19">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -5635,7 +5644,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19">
+    <row r="3" spans="1:6" ht="19">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -5649,7 +5658,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32">
+    <row r="4" spans="1:6" ht="32">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -5663,10 +5672,10 @@
         <v>340</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="19">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -5679,8 +5688,11 @@
       <c r="D5" s="36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="48">
+      <c r="F5" s="18" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48">
       <c r="A6" s="36">
         <v>5</v>
       </c>
@@ -5697,7 +5709,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19">
+    <row r="7" spans="1:6" ht="19">
       <c r="A7" s="36">
         <v>6</v>
       </c>
@@ -5711,7 +5723,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19">
+    <row r="8" spans="1:6" ht="19">
       <c r="A8" s="36">
         <v>7</v>
       </c>
@@ -5725,7 +5737,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19">
+    <row r="9" spans="1:6" ht="19">
       <c r="A9" s="36">
         <v>8</v>
       </c>
@@ -5739,7 +5751,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19">
+    <row r="10" spans="1:6" ht="19">
       <c r="A10" s="36">
         <v>9</v>
       </c>
@@ -5753,7 +5765,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="48">
+    <row r="11" spans="1:6" ht="48">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -5770,7 +5782,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19">
+    <row r="12" spans="1:6" ht="19">
       <c r="A12" s="36">
         <v>11</v>
       </c>
@@ -5787,7 +5799,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19">
+    <row r="13" spans="1:6" ht="19">
       <c r="A13" s="36">
         <v>12</v>
       </c>
@@ -5801,7 +5813,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19">
+    <row r="14" spans="1:6" ht="19">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -5815,7 +5827,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19">
+    <row r="15" spans="1:6" ht="19">
       <c r="A15" s="36">
         <v>14</v>
       </c>
@@ -5829,7 +5841,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="32">
+    <row r="16" spans="1:6" ht="32">
       <c r="A16" s="36">
         <v>15</v>
       </c>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BE4C442C-AA7B-EC45-933D-23E60240F8EA}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55E3BC18-97EB-5743-AC10-B7B4CC3B0EB8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1200">
   <si>
     <t>题号</t>
   </si>
@@ -4012,10 +4012,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.递归</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.单调队列
 2.双向队列
 3.动态规划</t>
@@ -4130,6 +4126,16 @@
   <si>
     <t>1.滑动窗口 set
 2.优化滑动窗口 map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.By Storing root to n1 and root to n2 paths and compare paths
+2.递归 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归解析
+https://www.geeksforgeeks.org/lowest-common-ancestor-binary-tree-set-1/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5595,8 +5601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="F238" sqref="F238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5672,7 +5678,7 @@
         <v>340</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="64">
@@ -5689,7 +5695,7 @@
         <v>349</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="48">
@@ -8996,7 +9002,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="19">
+    <row r="225" spans="1:6" ht="19">
       <c r="A225" s="36">
         <v>224</v>
       </c>
@@ -9010,7 +9016,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="19">
+    <row r="226" spans="1:6" ht="19">
       <c r="A226" s="36">
         <v>225</v>
       </c>
@@ -9024,7 +9030,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="32">
+    <row r="227" spans="1:6" ht="32">
       <c r="A227" s="36">
         <v>226</v>
       </c>
@@ -9041,7 +9047,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="19">
+    <row r="228" spans="1:6" ht="19">
       <c r="A228" s="36">
         <v>227</v>
       </c>
@@ -9055,7 +9061,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="19">
+    <row r="229" spans="1:6" ht="19">
       <c r="A229" s="36">
         <v>228</v>
       </c>
@@ -9069,7 +9075,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="19">
+    <row r="230" spans="1:6" ht="19">
       <c r="A230" s="36">
         <v>229</v>
       </c>
@@ -9083,7 +9089,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="19">
+    <row r="231" spans="1:6" ht="19">
       <c r="A231" s="36">
         <v>230</v>
       </c>
@@ -9097,7 +9103,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="19">
+    <row r="232" spans="1:6" ht="19">
       <c r="A232" s="36">
         <v>231</v>
       </c>
@@ -9111,7 +9117,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="19">
+    <row r="233" spans="1:6" ht="19">
       <c r="A233" s="36">
         <v>232</v>
       </c>
@@ -9125,7 +9131,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="19">
+    <row r="234" spans="1:6" ht="19">
       <c r="A234" s="36">
         <v>233</v>
       </c>
@@ -9139,7 +9145,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="48">
+    <row r="235" spans="1:6" ht="48">
       <c r="A235" s="36">
         <v>234</v>
       </c>
@@ -9156,7 +9162,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="32">
+    <row r="236" spans="1:6" ht="32">
       <c r="A236" s="36">
         <v>235</v>
       </c>
@@ -9170,7 +9176,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="19">
+    <row r="237" spans="1:6" ht="48">
       <c r="A237" s="40">
         <v>236</v>
       </c>
@@ -9184,10 +9190,13 @@
         <v>340</v>
       </c>
       <c r="E237" s="18" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="19">
+        <v>1198</v>
+      </c>
+      <c r="F237" s="18" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="19">
       <c r="A238" s="36">
         <v>237</v>
       </c>
@@ -9201,7 +9210,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="19">
+    <row r="239" spans="1:6" ht="19">
       <c r="A239" s="40">
         <v>238</v>
       </c>
@@ -9215,7 +9224,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="48">
+    <row r="240" spans="1:6" ht="48">
       <c r="A240" s="40">
         <v>239</v>
       </c>
@@ -9229,7 +9238,7 @@
         <v>645</v>
       </c>
       <c r="E240" s="18" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="64">
@@ -9246,7 +9255,7 @@
         <v>340</v>
       </c>
       <c r="E241" s="18" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="19">
@@ -9910,7 +9919,7 @@
         <v>349</v>
       </c>
       <c r="E288" s="18" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="19">
@@ -10266,7 +10275,7 @@
         <v>340</v>
       </c>
       <c r="F313" s="18" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="19">
@@ -10409,7 +10418,7 @@
         <v>340</v>
       </c>
       <c r="E323" s="18" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="324" spans="1:5" ht="32">
@@ -10625,7 +10634,7 @@
         <v>1128</v>
       </c>
       <c r="F338" s="18" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="19">
@@ -10642,7 +10651,7 @@
         <v>340</v>
       </c>
       <c r="E339" s="18" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="19">
@@ -10771,10 +10780,10 @@
         <v>340</v>
       </c>
       <c r="E348" s="18" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F348" s="18" t="s">
         <v>1190</v>
-      </c>
-      <c r="F348" s="18" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="19">
@@ -11435,7 +11444,7 @@
         <v>340</v>
       </c>
       <c r="E395" s="18" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="32">
@@ -11508,10 +11517,10 @@
         <v>340</v>
       </c>
       <c r="E400" s="44" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F400" s="28" t="s">
         <v>1193</v>
-      </c>
-      <c r="F400" s="28" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="19">
@@ -12046,7 +12055,7 @@
         <v>343</v>
       </c>
       <c r="E438" s="18" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="439" spans="1:5" ht="19">
@@ -13505,7 +13514,7 @@
         <v>343</v>
       </c>
       <c r="F542" s="18" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="19">

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,6 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">string!$A$1:$E$66</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5601,8 +5602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="F238" sqref="F238"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="E236" sqref="E236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/leetcode记录(已自动还原).xlsx
+++ b/leetcode记录(已自动还原).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xzj/OneDrive/6.00/3.Algorithms/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55E3BC18-97EB-5743-AC10-B7B4CC3B0EB8}"/>
+  <xr:revisionPtr revIDLastSave="420" documentId="8_{1156737D-6D21-D441-8A04-95A80F0645F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{463B7FDC-A331-F747-8E83-B3B5F00E01DF}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10500" windowWidth="33600" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4300,7 +4300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4437,6 +4437,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5602,8 +5605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AE189-4F9B-3D4E-9D02-181DB672865A}">
   <dimension ref="A1:F917"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
-      <selection activeCell="E236" sqref="E236"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6160,10 +6163,10 @@
       <c r="D35" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="43" t="s">
         <v>1130</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="46" t="s">
         <v>1129</v>
       </c>
     </row>
